--- a/vyz/hse/tables/spb/Физика.xlsx
+++ b/vyz/hse/tables/spb/Физика.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
   <si>
     <t>Образовательная программа "Физика"</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Количество платных мест:</t>
   </si>
   <si>
-    <t>Время формирования: 19.07.2022 15:00:31</t>
+    <t>Время формирования: 26.07.2022 12:28:50</t>
   </si>
   <si>
     <t>Результаты, зачтенные по Олимпиадам школьников</t>
@@ -112,130 +112,172 @@
     <t>1</t>
   </si>
   <si>
+    <t>139-274-134 71</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Б</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>167-306-322 62</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>176-769-355 37</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>168-740-767 13</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>185-961-787 38</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>152-881-361 76</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>175-504-081 62</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>170-742-180 53</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>159-150-573 74</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>159-543-843 07</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>153-003-167 03</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>168-829-848 45</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>172-803-156 57</t>
   </si>
   <si>
-    <t>Да</t>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>281</t>
-  </si>
-  <si>
-    <t>Б</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>176-769-355 37</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>168-740-767 13</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>287</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>185-961-787 38</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>152-881-361 76</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>297</t>
-  </si>
-  <si>
-    <t>175-504-081 62</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>170-742-180 53</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>159-150-573 74</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>298</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>294</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>157-374-559 00</t>
@@ -244,7 +286,7 @@
     <t>85</t>
   </si>
   <si>
-    <t>294</t>
+    <t>15</t>
   </si>
   <si>
     <t>172-284-370 69</t>
@@ -253,16 +295,7 @@
     <t>93</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>159-543-843 07</t>
-  </si>
-  <si>
-    <t>293</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>16</t>
   </si>
   <si>
     <t>147-695-944 28</t>
@@ -271,13 +304,13 @@
     <t>291</t>
   </si>
   <si>
-    <t>13</t>
+    <t>17</t>
   </si>
   <si>
     <t>148-574-187 02</t>
   </si>
   <si>
-    <t>14</t>
+    <t>18</t>
   </si>
   <si>
     <t>160-157-220 25</t>
@@ -286,31 +319,37 @@
     <t>290</t>
   </si>
   <si>
-    <t>15</t>
+    <t>19</t>
   </si>
   <si>
     <t>175-412-445 61</t>
   </si>
   <si>
-    <t>16</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>162-871-451 80</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>165-531-058 58</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>198-221-273 85</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>162-871-451 80</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>285</t>
-  </si>
-  <si>
-    <t>18</t>
+    <t>23</t>
   </si>
   <si>
     <t>159-039-731 90</t>
@@ -319,7 +358,7 @@
     <t>284</t>
   </si>
   <si>
-    <t>19</t>
+    <t>24</t>
   </si>
   <si>
     <t>211-960-594 53</t>
@@ -331,7 +370,7 @@
     <t>283</t>
   </si>
   <si>
-    <t>20</t>
+    <t>25</t>
   </si>
   <si>
     <t>203-399-527 63</t>
@@ -340,13 +379,13 @@
     <t>88</t>
   </si>
   <si>
-    <t>21</t>
+    <t>26</t>
   </si>
   <si>
     <t>170-588-253 85</t>
   </si>
   <si>
-    <t>22</t>
+    <t>27</t>
   </si>
   <si>
     <t>197-616-598 34</t>
@@ -355,16 +394,19 @@
     <t>282</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>167-306-322 62</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>24</t>
+    <t>28</t>
+  </si>
+  <si>
+    <t>171-865-128 84</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>157-650-843 93</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>159-052-951 82</t>
@@ -373,25 +415,25 @@
     <t>280</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>157-650-843 93</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>26</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>157-839-587 33</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
   <si>
     <t>180-022-140 01</t>
   </si>
   <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>27</t>
+    <t>33</t>
   </si>
   <si>
     <t>185-858-725 41</t>
@@ -400,7 +442,7 @@
     <t>84</t>
   </si>
   <si>
-    <t>28</t>
+    <t>34</t>
   </si>
   <si>
     <t>165-724-613 82</t>
@@ -409,7 +451,7 @@
     <t>81</t>
   </si>
   <si>
-    <t>29</t>
+    <t>35</t>
   </si>
   <si>
     <t>164-203-642 36</t>
@@ -418,7 +460,13 @@
     <t>277</t>
   </si>
   <si>
-    <t>30</t>
+    <t>36</t>
+  </si>
+  <si>
+    <t>165-496-351 03</t>
+  </si>
+  <si>
+    <t>37</t>
   </si>
   <si>
     <t>164-802-291 65</t>
@@ -427,109 +475,142 @@
     <t>80</t>
   </si>
   <si>
-    <t>31</t>
+    <t>38</t>
+  </si>
+  <si>
+    <t>20607875966</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>Б; К</t>
+  </si>
+  <si>
+    <t>39</t>
   </si>
   <si>
     <t>176-773-484 26</t>
   </si>
   <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>32</t>
+    <t>40</t>
   </si>
   <si>
     <t>170-149-707 54</t>
   </si>
   <si>
-    <t>82</t>
-  </si>
-  <si>
     <t>275</t>
   </si>
   <si>
-    <t>33</t>
+    <t>41</t>
+  </si>
+  <si>
+    <t>195-841-338 09</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>153-476-239 73</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>169-690-415 18</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>180-276-546 72</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>165-664-681 07</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>185-128-807 86</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>151-972-958 97</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>202-552-780 31</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>169-454-173 03</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>188-639-228 32</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>158-436-215 80</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>148-517-092 79</t>
+  </si>
+  <si>
+    <t>53</t>
   </si>
   <si>
     <t>157-180-573 75</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>169-690-415 18</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>180-276-546 72</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>185-128-807 86</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>151-972-958 97</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>202-552-780 31</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>169-454-173 03</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>188-639-228 32</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>158-436-215 80</t>
-  </si>
-  <si>
-    <t>42</t>
+    <t>272</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>17811323459</t>
+  </si>
+  <si>
+    <t>55</t>
   </si>
   <si>
     <t>164-916-527 93</t>
   </si>
   <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>43</t>
+    <t>56</t>
   </si>
   <si>
     <t>164-892-594 21</t>
   </si>
   <si>
-    <t>Б; К</t>
-  </si>
-  <si>
-    <t>44</t>
+    <t>57</t>
   </si>
   <si>
     <t>162-131-302 06</t>
@@ -538,61 +619,64 @@
     <t>271</t>
   </si>
   <si>
-    <t>45</t>
+    <t>58</t>
   </si>
   <si>
     <t>179-273-699 30</t>
   </si>
   <si>
-    <t>46</t>
+    <t>59</t>
+  </si>
+  <si>
+    <t>184-598-141 18</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
   <si>
     <t>153-534-036 42</t>
   </si>
   <si>
-    <t>47</t>
+    <t>61</t>
   </si>
   <si>
     <t>208-879-306 06</t>
   </si>
   <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>48</t>
+    <t>62</t>
   </si>
   <si>
     <t>207-639-324 70</t>
   </si>
   <si>
-    <t>49</t>
+    <t>63</t>
   </si>
   <si>
     <t>184-089-005 81</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>167-819-282 17</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>17811323459</t>
+    <t>65</t>
+  </si>
+  <si>
+    <t>176-613-077 80</t>
   </si>
   <si>
     <t>269</t>
   </si>
   <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>176-613-077 80</t>
-  </si>
-  <si>
-    <t>53</t>
+    <t>66</t>
+  </si>
+  <si>
+    <t>184-368-620 01</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>67</t>
   </si>
   <si>
     <t>157-674-663 16</t>
@@ -604,37 +688,43 @@
     <t>267</t>
   </si>
   <si>
-    <t>54</t>
+    <t>68</t>
   </si>
   <si>
     <t>188-987-860 85</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>148-517-092 79</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>176-533-590 96</t>
+    <t>69</t>
+  </si>
+  <si>
+    <t>178-813-153 00</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>190-394-610 79</t>
   </si>
   <si>
     <t>266</t>
   </si>
   <si>
-    <t>57</t>
+    <t>144-519-401 52</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>72</t>
   </si>
   <si>
     <t>164-058-037 54</t>
   </si>
   <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>58</t>
+    <t>148-449-617 02</t>
+  </si>
+  <si>
+    <t>74</t>
   </si>
   <si>
     <t>165-218-746 75</t>
@@ -643,13 +733,16 @@
     <t>264</t>
   </si>
   <si>
-    <t>59</t>
+    <t>75</t>
+  </si>
+  <si>
+    <t>147-748-685 21</t>
   </si>
   <si>
     <t>165-302-339 41</t>
   </si>
   <si>
-    <t>60</t>
+    <t>77</t>
   </si>
   <si>
     <t>165-341-768 74</t>
@@ -658,112 +751,109 @@
     <t>263</t>
   </si>
   <si>
-    <t>61</t>
-  </si>
-  <si>
     <t>163-609-756 86</t>
   </si>
   <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>178-813-153 00</t>
+    <t>79</t>
+  </si>
+  <si>
+    <t>182-778-476 26</t>
   </si>
   <si>
     <t>261</t>
   </si>
   <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>182-778-476 26</t>
-  </si>
-  <si>
     <t>173-694-132 93</t>
   </si>
   <si>
-    <t>65</t>
+    <t>168-937-994 57</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>152-048-932 49</t>
+  </si>
+  <si>
+    <t>259</t>
   </si>
   <si>
     <t>152-743-701 58</t>
   </si>
   <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
     <t>182-189-504 87</t>
   </si>
   <si>
-    <t>67</t>
-  </si>
-  <si>
     <t>738</t>
   </si>
   <si>
     <t>258</t>
   </si>
   <si>
-    <t>68</t>
+    <t>166-810-106 60</t>
+  </si>
+  <si>
+    <t>К</t>
   </si>
   <si>
     <t>209-287-421 77</t>
   </si>
   <si>
-    <t>69</t>
-  </si>
-  <si>
     <t>201-832-953 35</t>
   </si>
   <si>
     <t>257</t>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
     <t>164-122-811 35</t>
   </si>
   <si>
     <t>167-664-280 08</t>
   </si>
   <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>163-739-159 92</t>
-  </si>
-  <si>
-    <t>253</t>
+    <t>189-470-973 37</t>
+  </si>
+  <si>
+    <t>252</t>
   </si>
   <si>
     <t>207-160-084 22</t>
   </si>
   <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
     <t>202-886-897 92</t>
   </si>
   <si>
     <t>250</t>
   </si>
   <si>
-    <t>75</t>
+    <t>169-447-300 00</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>170-588-257 89</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>199-341-791 24</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>164-638-177 91</t>
+  </si>
+  <si>
+    <t>244</t>
   </si>
   <si>
     <t>148-209-065 61</t>
   </si>
   <si>
-    <t>244</t>
+    <t>190-899-195 34</t>
   </si>
   <si>
     <t>200-677-868 60</t>
@@ -772,7 +862,7 @@
     <t>243</t>
   </si>
   <si>
-    <t>77</t>
+    <t>101</t>
   </si>
   <si>
     <t>165-691-896 23</t>
@@ -781,10 +871,13 @@
     <t>241</t>
   </si>
   <si>
+    <t>102</t>
+  </si>
+  <si>
     <t>187-397-900 38</t>
   </si>
   <si>
-    <t>79</t>
+    <t>103</t>
   </si>
   <si>
     <t>160-343-076 26</t>
@@ -793,16 +886,22 @@
     <t>240</t>
   </si>
   <si>
+    <t>104</t>
+  </si>
+  <si>
     <t>155-321-753 49</t>
   </si>
   <si>
     <t>230</t>
   </si>
   <si>
+    <t>105</t>
+  </si>
+  <si>
     <t>153-408-479 60</t>
   </si>
   <si>
-    <t>К</t>
+    <t>106</t>
   </si>
   <si>
     <t>165-044-862 65</t>
@@ -811,28 +910,34 @@
     <t>217</t>
   </si>
   <si>
+    <t>107</t>
+  </si>
+  <si>
     <t>167-276-869 20</t>
   </si>
   <si>
     <t>179</t>
   </si>
   <si>
+    <t>108</t>
+  </si>
+  <si>
     <t>189-232-385 00</t>
   </si>
   <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>14946</t>
+  </si>
+  <si>
     <t>169</t>
   </si>
   <si>
-    <t>14946</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>151-257-269 47</t>
-  </si>
-  <si>
-    <t>20607875966</t>
+    <t>110</t>
   </si>
   <si>
     <t>158-759-128 21</t>
@@ -1177,7 +1282,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="BT106"/>
+  <dimension ref="BT128"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1583,7 +1688,7 @@
       </c>
       <c r="AD18" s="29" t="e"/>
       <c r="AE18" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF18" s="29" t="e"/>
       <c r="AG18" s="29" t="s">
@@ -1621,17 +1726,17 @@
       </c>
       <c r="N19" s="27" t="e"/>
       <c r="O19" s="27" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P19" s="27" t="e"/>
       <c r="Q19" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R19" s="27" t="e"/>
       <c r="S19" s="30" t="e"/>
       <c r="T19" s="31" t="e"/>
       <c r="U19" s="29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V19" s="29" t="e"/>
       <c r="W19" s="29" t="s">
@@ -1639,15 +1744,15 @@
       </c>
       <c r="X19" s="29" t="e"/>
       <c r="Y19" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z19" s="29" t="e"/>
       <c r="AA19" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB19" s="29" t="e"/>
       <c r="AC19" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD19" s="29" t="e"/>
       <c r="AE19" s="29" t="s">
@@ -1661,7 +1766,7 @@
     </row>
     <row r="20" ht="13" customHeight="true" outlineLevel="1">
       <c r="A20" s="27" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B20" s="27" t="e"/>
       <c r="C20" s="28" t="s">
@@ -1685,21 +1790,21 @@
       </c>
       <c r="L20" s="27" t="e"/>
       <c r="M20" s="27" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N20" s="27" t="e"/>
       <c r="O20" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P20" s="27" t="e"/>
       <c r="Q20" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R20" s="27" t="e"/>
       <c r="S20" s="30" t="e"/>
       <c r="T20" s="31" t="e"/>
       <c r="U20" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V20" s="29" t="e"/>
       <c r="W20" s="29" t="s">
@@ -1729,11 +1834,11 @@
     </row>
     <row r="21" ht="13" customHeight="true" outlineLevel="1">
       <c r="A21" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="27" t="e"/>
       <c r="C21" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="28" t="e"/>
       <c r="E21" s="27" t="s">
@@ -1753,21 +1858,21 @@
       </c>
       <c r="L21" s="27" t="e"/>
       <c r="M21" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N21" s="27" t="e"/>
       <c r="O21" s="27" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="P21" s="27" t="e"/>
       <c r="Q21" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R21" s="27" t="e"/>
       <c r="S21" s="30" t="e"/>
       <c r="T21" s="31" t="e"/>
       <c r="U21" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V21" s="29" t="e"/>
       <c r="W21" s="29" t="s">
@@ -1775,7 +1880,7 @@
       </c>
       <c r="X21" s="29" t="e"/>
       <c r="Y21" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z21" s="29" t="e"/>
       <c r="AA21" s="29" t="s">
@@ -1787,7 +1892,7 @@
       </c>
       <c r="AD21" s="29" t="e"/>
       <c r="AE21" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF21" s="29" t="e"/>
       <c r="AG21" s="29" t="s">
@@ -1797,19 +1902,19 @@
     </row>
     <row r="22" ht="13" customHeight="true" outlineLevel="1">
       <c r="A22" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" s="27" t="e"/>
       <c r="C22" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22" s="28" t="e"/>
       <c r="E22" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" s="27" t="e"/>
       <c r="G22" s="27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H22" s="27" t="e"/>
       <c r="I22" s="27" t="s">
@@ -1821,21 +1926,21 @@
       </c>
       <c r="L22" s="27" t="e"/>
       <c r="M22" s="27" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N22" s="27" t="e"/>
       <c r="O22" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P22" s="27" t="e"/>
       <c r="Q22" s="27" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="R22" s="27" t="e"/>
       <c r="S22" s="30" t="e"/>
       <c r="T22" s="31" t="e"/>
       <c r="U22" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V22" s="29" t="e"/>
       <c r="W22" s="29" t="s">
@@ -1847,11 +1952,11 @@
       </c>
       <c r="Z22" s="29" t="e"/>
       <c r="AA22" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB22" s="29" t="e"/>
       <c r="AC22" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD22" s="29" t="e"/>
       <c r="AE22" s="29" t="s">
@@ -1865,7 +1970,7 @@
     </row>
     <row r="23" ht="13" customHeight="true" outlineLevel="1">
       <c r="A23" s="27" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B23" s="27" t="e"/>
       <c r="C23" s="28" t="s">
@@ -1877,7 +1982,7 @@
       </c>
       <c r="F23" s="27" t="e"/>
       <c r="G23" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H23" s="27" t="e"/>
       <c r="I23" s="27" t="s">
@@ -1888,24 +1993,22 @@
         <v>30</v>
       </c>
       <c r="L23" s="27" t="e"/>
-      <c r="M23" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="N23" s="32" t="e"/>
+      <c r="M23" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23" s="27" t="e"/>
       <c r="O23" s="27" t="s">
         <v>59</v>
       </c>
       <c r="P23" s="27" t="e"/>
       <c r="Q23" s="27" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="R23" s="27" t="e"/>
-      <c r="S23" s="29" t="s">
+      <c r="S23" s="30" t="e"/>
+      <c r="T23" s="31" t="e"/>
+      <c r="U23" s="29" t="s">
         <v>60</v>
-      </c>
-      <c r="T23" s="29" t="e"/>
-      <c r="U23" s="29" t="s">
-        <v>61</v>
       </c>
       <c r="V23" s="29" t="e"/>
       <c r="W23" s="29" t="s">
@@ -1921,11 +2024,11 @@
       </c>
       <c r="AB23" s="29" t="e"/>
       <c r="AC23" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD23" s="29" t="e"/>
       <c r="AE23" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF23" s="29" t="e"/>
       <c r="AG23" s="29" t="s">
@@ -1935,11 +2038,11 @@
     </row>
     <row r="24" ht="13" customHeight="true" outlineLevel="1">
       <c r="A24" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="27" t="e"/>
       <c r="C24" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="28" t="e"/>
       <c r="E24" s="27" t="s">
@@ -1959,23 +2062,23 @@
       </c>
       <c r="L24" s="27" t="e"/>
       <c r="M24" s="32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N24" s="32" t="e"/>
       <c r="O24" s="27" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P24" s="27" t="e"/>
       <c r="Q24" s="27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="R24" s="27" t="e"/>
       <c r="S24" s="29" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="T24" s="29" t="e"/>
       <c r="U24" s="29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V24" s="29" t="e"/>
       <c r="W24" s="29" t="s">
@@ -2005,11 +2108,11 @@
     </row>
     <row r="25" ht="13" customHeight="true" outlineLevel="1">
       <c r="A25" s="27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B25" s="27" t="e"/>
       <c r="C25" s="28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D25" s="28" t="e"/>
       <c r="E25" s="27" t="s">
@@ -2028,20 +2131,20 @@
         <v>30</v>
       </c>
       <c r="L25" s="27" t="e"/>
-      <c r="M25" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="N25" s="27" t="e"/>
+      <c r="M25" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="N25" s="32" t="e"/>
       <c r="O25" s="27" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="P25" s="27" t="e"/>
       <c r="Q25" s="27" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="R25" s="27" t="e"/>
       <c r="S25" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T25" s="29" t="e"/>
       <c r="U25" s="29" t="s">
@@ -2065,7 +2168,7 @@
       </c>
       <c r="AD25" s="29" t="e"/>
       <c r="AE25" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF25" s="29" t="e"/>
       <c r="AG25" s="29" t="s">
@@ -2098,20 +2201,20 @@
         <v>30</v>
       </c>
       <c r="L26" s="27" t="e"/>
-      <c r="M26" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="N26" s="32" t="e"/>
+      <c r="M26" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="N26" s="27" t="e"/>
       <c r="O26" s="27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P26" s="27" t="e"/>
       <c r="Q26" s="27" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="R26" s="27" t="e"/>
       <c r="S26" s="29" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="T26" s="29" t="e"/>
       <c r="U26" s="29" t="s">
@@ -2145,7 +2248,7 @@
     </row>
     <row r="27" ht="13" customHeight="true" outlineLevel="1">
       <c r="A27" s="27" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B27" s="27" t="e"/>
       <c r="C27" s="28" t="s">
@@ -2169,19 +2272,19 @@
       </c>
       <c r="L27" s="27" t="e"/>
       <c r="M27" s="27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N27" s="27" t="e"/>
       <c r="O27" s="27" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="P27" s="27" t="e"/>
       <c r="Q27" s="27" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="R27" s="27" t="e"/>
       <c r="S27" s="29" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="T27" s="29" t="e"/>
       <c r="U27" s="29" t="s">
@@ -2205,7 +2308,7 @@
       </c>
       <c r="AD27" s="29" t="e"/>
       <c r="AE27" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF27" s="29" t="e"/>
       <c r="AG27" s="29" t="s">
@@ -2215,11 +2318,11 @@
     </row>
     <row r="28" ht="13" customHeight="true" outlineLevel="1">
       <c r="A28" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28" s="27" t="e"/>
       <c r="C28" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="28" t="e"/>
       <c r="E28" s="27" t="s">
@@ -2239,21 +2342,21 @@
       </c>
       <c r="L28" s="27" t="e"/>
       <c r="M28" s="27" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="N28" s="27" t="e"/>
       <c r="O28" s="27" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="P28" s="27" t="e"/>
       <c r="Q28" s="27" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R28" s="27" t="e"/>
       <c r="S28" s="30" t="e"/>
       <c r="T28" s="31" t="e"/>
       <c r="U28" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V28" s="29" t="e"/>
       <c r="W28" s="29" t="s">
@@ -2273,7 +2376,7 @@
       </c>
       <c r="AD28" s="29" t="e"/>
       <c r="AE28" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF28" s="29" t="e"/>
       <c r="AG28" s="29" t="s">
@@ -2283,11 +2386,11 @@
     </row>
     <row r="29" ht="13" customHeight="true" outlineLevel="1">
       <c r="A29" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" s="27" t="e"/>
       <c r="C29" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29" s="28" t="e"/>
       <c r="E29" s="27" t="s">
@@ -2306,24 +2409,24 @@
         <v>30</v>
       </c>
       <c r="L29" s="27" t="e"/>
-      <c r="M29" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="N29" s="27" t="e"/>
-      <c r="O29" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="P29" s="27" t="e"/>
+      <c r="M29" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="N29" s="32" t="e"/>
+      <c r="O29" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" s="32" t="e"/>
       <c r="Q29" s="27" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="R29" s="27" t="e"/>
       <c r="S29" s="29" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="T29" s="29" t="e"/>
       <c r="U29" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V29" s="29" t="e"/>
       <c r="W29" s="29" t="s">
@@ -2353,11 +2456,11 @@
     </row>
     <row r="30" ht="13" customHeight="true" outlineLevel="1">
       <c r="A30" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" s="27" t="e"/>
       <c r="C30" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D30" s="28" t="e"/>
       <c r="E30" s="27" t="s">
@@ -2376,24 +2479,22 @@
         <v>30</v>
       </c>
       <c r="L30" s="27" t="e"/>
-      <c r="M30" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="N30" s="27" t="e"/>
-      <c r="O30" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="P30" s="27" t="e"/>
+      <c r="M30" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="N30" s="32" t="e"/>
+      <c r="O30" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" s="32" t="e"/>
       <c r="Q30" s="27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="R30" s="27" t="e"/>
-      <c r="S30" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="T30" s="29" t="e"/>
+      <c r="S30" s="30" t="e"/>
+      <c r="T30" s="31" t="e"/>
       <c r="U30" s="29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V30" s="29" t="e"/>
       <c r="W30" s="29" t="s">
@@ -2413,7 +2514,7 @@
       </c>
       <c r="AD30" s="29" t="e"/>
       <c r="AE30" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF30" s="29" t="e"/>
       <c r="AG30" s="29" t="s">
@@ -2446,24 +2547,24 @@
         <v>30</v>
       </c>
       <c r="L31" s="27" t="e"/>
-      <c r="M31" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="N31" s="27" t="e"/>
+      <c r="M31" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="N31" s="32" t="e"/>
       <c r="O31" s="27" t="s">
         <v>59</v>
       </c>
       <c r="P31" s="27" t="e"/>
       <c r="Q31" s="27" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="R31" s="27" t="e"/>
       <c r="S31" s="29" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="T31" s="29" t="e"/>
       <c r="U31" s="29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="V31" s="29" t="e"/>
       <c r="W31" s="29" t="s">
@@ -2517,23 +2618,23 @@
       </c>
       <c r="L32" s="27" t="e"/>
       <c r="M32" s="27" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="N32" s="27" t="e"/>
       <c r="O32" s="27" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="P32" s="27" t="e"/>
       <c r="Q32" s="27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="R32" s="27" t="e"/>
       <c r="S32" s="29" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="T32" s="29" t="e"/>
       <c r="U32" s="29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="V32" s="29" t="e"/>
       <c r="W32" s="29" t="s">
@@ -2563,11 +2664,11 @@
     </row>
     <row r="33" ht="13" customHeight="true" outlineLevel="1">
       <c r="A33" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B33" s="27" t="e"/>
       <c r="C33" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D33" s="28" t="e"/>
       <c r="E33" s="27" t="s">
@@ -2587,23 +2688,23 @@
       </c>
       <c r="L33" s="27" t="e"/>
       <c r="M33" s="27" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="N33" s="27" t="e"/>
       <c r="O33" s="27" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="P33" s="27" t="e"/>
       <c r="Q33" s="27" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="R33" s="27" t="e"/>
       <c r="S33" s="29" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="T33" s="29" t="e"/>
       <c r="U33" s="29" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="V33" s="29" t="e"/>
       <c r="W33" s="29" t="s">
@@ -2633,11 +2734,11 @@
     </row>
     <row r="34" ht="13" customHeight="true" outlineLevel="1">
       <c r="A34" s="27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B34" s="27" t="e"/>
       <c r="C34" s="28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D34" s="28" t="e"/>
       <c r="E34" s="27" t="s">
@@ -2657,23 +2758,23 @@
       </c>
       <c r="L34" s="27" t="e"/>
       <c r="M34" s="27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N34" s="27" t="e"/>
       <c r="O34" s="27" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="P34" s="27" t="e"/>
       <c r="Q34" s="27" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="R34" s="27" t="e"/>
       <c r="S34" s="29" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="T34" s="29" t="e"/>
       <c r="U34" s="29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="V34" s="29" t="e"/>
       <c r="W34" s="29" t="s">
@@ -2693,7 +2794,7 @@
       </c>
       <c r="AD34" s="29" t="e"/>
       <c r="AE34" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF34" s="29" t="e"/>
       <c r="AG34" s="29" t="s">
@@ -2727,19 +2828,19 @@
       </c>
       <c r="L35" s="27" t="e"/>
       <c r="M35" s="27" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="N35" s="27" t="e"/>
       <c r="O35" s="27" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="P35" s="27" t="e"/>
       <c r="Q35" s="27" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="R35" s="27" t="e"/>
       <c r="S35" s="29" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="T35" s="29" t="e"/>
       <c r="U35" s="29" t="s">
@@ -2797,21 +2898,23 @@
       </c>
       <c r="L36" s="27" t="e"/>
       <c r="M36" s="27" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="N36" s="27" t="e"/>
       <c r="O36" s="27" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="P36" s="27" t="e"/>
       <c r="Q36" s="27" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="R36" s="27" t="e"/>
-      <c r="S36" s="30" t="e"/>
-      <c r="T36" s="31" t="e"/>
+      <c r="S36" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T36" s="29" t="e"/>
       <c r="U36" s="29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="V36" s="29" t="e"/>
       <c r="W36" s="29" t="s">
@@ -2841,11 +2944,11 @@
     </row>
     <row r="37" ht="13" customHeight="true" outlineLevel="1">
       <c r="A37" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B37" s="27" t="e"/>
       <c r="C37" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D37" s="28" t="e"/>
       <c r="E37" s="27" t="s">
@@ -2865,21 +2968,23 @@
       </c>
       <c r="L37" s="27" t="e"/>
       <c r="M37" s="27" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="N37" s="27" t="e"/>
       <c r="O37" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P37" s="27" t="e"/>
       <c r="Q37" s="27" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="R37" s="27" t="e"/>
-      <c r="S37" s="30" t="e"/>
-      <c r="T37" s="31" t="e"/>
+      <c r="S37" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="T37" s="29" t="e"/>
       <c r="U37" s="29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="V37" s="29" t="e"/>
       <c r="W37" s="29" t="s">
@@ -2909,11 +3014,11 @@
     </row>
     <row r="38" ht="13" customHeight="true" outlineLevel="1">
       <c r="A38" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B38" s="27" t="e"/>
       <c r="C38" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D38" s="28" t="e"/>
       <c r="E38" s="27" t="s">
@@ -2933,23 +3038,23 @@
       </c>
       <c r="L38" s="27" t="e"/>
       <c r="M38" s="27" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="N38" s="27" t="e"/>
       <c r="O38" s="27" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="P38" s="27" t="e"/>
       <c r="Q38" s="27" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="R38" s="27" t="e"/>
       <c r="S38" s="29" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="T38" s="29" t="e"/>
       <c r="U38" s="29" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="V38" s="29" t="e"/>
       <c r="W38" s="29" t="s">
@@ -2979,11 +3084,11 @@
     </row>
     <row r="39" ht="13" customHeight="true" outlineLevel="1">
       <c r="A39" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B39" s="27" t="e"/>
       <c r="C39" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D39" s="28" t="e"/>
       <c r="E39" s="27" t="s">
@@ -3003,21 +3108,23 @@
       </c>
       <c r="L39" s="27" t="e"/>
       <c r="M39" s="27" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="N39" s="27" t="e"/>
       <c r="O39" s="27" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="P39" s="27" t="e"/>
       <c r="Q39" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R39" s="27" t="e"/>
-      <c r="S39" s="30" t="e"/>
-      <c r="T39" s="31" t="e"/>
+      <c r="S39" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="T39" s="29" t="e"/>
       <c r="U39" s="29" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="V39" s="29" t="e"/>
       <c r="W39" s="29" t="s">
@@ -3047,11 +3154,11 @@
     </row>
     <row r="40" ht="13" customHeight="true" outlineLevel="1">
       <c r="A40" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B40" s="27" t="e"/>
       <c r="C40" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D40" s="28" t="e"/>
       <c r="E40" s="27" t="s">
@@ -3070,22 +3177,24 @@
         <v>30</v>
       </c>
       <c r="L40" s="27" t="e"/>
-      <c r="M40" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="N40" s="32" t="e"/>
+      <c r="M40" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="N40" s="27" t="e"/>
       <c r="O40" s="27" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="P40" s="27" t="e"/>
       <c r="Q40" s="27" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="R40" s="27" t="e"/>
-      <c r="S40" s="30" t="e"/>
-      <c r="T40" s="31" t="e"/>
+      <c r="S40" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="T40" s="29" t="e"/>
       <c r="U40" s="29" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="V40" s="29" t="e"/>
       <c r="W40" s="29" t="s">
@@ -3101,11 +3210,11 @@
       </c>
       <c r="AB40" s="29" t="e"/>
       <c r="AC40" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD40" s="29" t="e"/>
       <c r="AE40" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF40" s="29" t="e"/>
       <c r="AG40" s="29" t="s">
@@ -3115,11 +3224,11 @@
     </row>
     <row r="41" ht="13" customHeight="true" outlineLevel="1">
       <c r="A41" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B41" s="27" t="e"/>
       <c r="C41" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D41" s="28" t="e"/>
       <c r="E41" s="27" t="s">
@@ -3139,21 +3248,21 @@
       </c>
       <c r="L41" s="27" t="e"/>
       <c r="M41" s="27" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="N41" s="27" t="e"/>
       <c r="O41" s="27" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="P41" s="27" t="e"/>
       <c r="Q41" s="27" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="R41" s="27" t="e"/>
       <c r="S41" s="30" t="e"/>
       <c r="T41" s="31" t="e"/>
       <c r="U41" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V41" s="29" t="e"/>
       <c r="W41" s="29" t="s">
@@ -3173,7 +3282,7 @@
       </c>
       <c r="AD41" s="29" t="e"/>
       <c r="AE41" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF41" s="29" t="e"/>
       <c r="AG41" s="29" t="s">
@@ -3183,11 +3292,11 @@
     </row>
     <row r="42" ht="13" customHeight="true" outlineLevel="1">
       <c r="A42" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B42" s="27" t="e"/>
       <c r="C42" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D42" s="28" t="e"/>
       <c r="E42" s="27" t="s">
@@ -3207,11 +3316,11 @@
       </c>
       <c r="L42" s="27" t="e"/>
       <c r="M42" s="27" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="N42" s="27" t="e"/>
       <c r="O42" s="27" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="P42" s="27" t="e"/>
       <c r="Q42" s="27" t="s">
@@ -3221,7 +3330,7 @@
       <c r="S42" s="30" t="e"/>
       <c r="T42" s="31" t="e"/>
       <c r="U42" s="29" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="V42" s="29" t="e"/>
       <c r="W42" s="29" t="s">
@@ -3251,11 +3360,11 @@
     </row>
     <row r="43" ht="13" customHeight="true" outlineLevel="1">
       <c r="A43" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B43" s="27" t="e"/>
       <c r="C43" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D43" s="28" t="e"/>
       <c r="E43" s="27" t="s">
@@ -3275,23 +3384,23 @@
       </c>
       <c r="L43" s="27" t="e"/>
       <c r="M43" s="27" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="N43" s="27" t="e"/>
       <c r="O43" s="27" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="P43" s="27" t="e"/>
       <c r="Q43" s="27" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="R43" s="27" t="e"/>
       <c r="S43" s="29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T43" s="29" t="e"/>
       <c r="U43" s="29" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="V43" s="29" t="e"/>
       <c r="W43" s="29" t="s">
@@ -3321,11 +3430,11 @@
     </row>
     <row r="44" ht="13" customHeight="true" outlineLevel="1">
       <c r="A44" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B44" s="27" t="e"/>
       <c r="C44" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D44" s="28" t="e"/>
       <c r="E44" s="27" t="s">
@@ -3345,23 +3454,21 @@
       </c>
       <c r="L44" s="27" t="e"/>
       <c r="M44" s="27" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="N44" s="27" t="e"/>
       <c r="O44" s="27" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="P44" s="27" t="e"/>
       <c r="Q44" s="27" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="R44" s="27" t="e"/>
-      <c r="S44" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="T44" s="29" t="e"/>
+      <c r="S44" s="30" t="e"/>
+      <c r="T44" s="31" t="e"/>
       <c r="U44" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V44" s="29" t="e"/>
       <c r="W44" s="29" t="s">
@@ -3381,7 +3488,7 @@
       </c>
       <c r="AD44" s="29" t="e"/>
       <c r="AE44" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF44" s="29" t="e"/>
       <c r="AG44" s="29" t="s">
@@ -3391,11 +3498,11 @@
     </row>
     <row r="45" ht="13" customHeight="true" outlineLevel="1">
       <c r="A45" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B45" s="27" t="e"/>
       <c r="C45" s="28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D45" s="28" t="e"/>
       <c r="E45" s="27" t="s">
@@ -3415,23 +3522,23 @@
       </c>
       <c r="L45" s="27" t="e"/>
       <c r="M45" s="27" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="N45" s="27" t="e"/>
       <c r="O45" s="27" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="P45" s="27" t="e"/>
       <c r="Q45" s="27" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="R45" s="27" t="e"/>
       <c r="S45" s="29" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="T45" s="29" t="e"/>
       <c r="U45" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V45" s="29" t="e"/>
       <c r="W45" s="29" t="s">
@@ -3451,7 +3558,7 @@
       </c>
       <c r="AD45" s="29" t="e"/>
       <c r="AE45" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF45" s="29" t="e"/>
       <c r="AG45" s="29" t="s">
@@ -3461,11 +3568,11 @@
     </row>
     <row r="46" ht="13" customHeight="true" outlineLevel="1">
       <c r="A46" s="27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B46" s="27" t="e"/>
       <c r="C46" s="28" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D46" s="28" t="e"/>
       <c r="E46" s="27" t="s">
@@ -3485,21 +3592,23 @@
       </c>
       <c r="L46" s="27" t="e"/>
       <c r="M46" s="27" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="N46" s="27" t="e"/>
       <c r="O46" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P46" s="27" t="e"/>
       <c r="Q46" s="27" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="R46" s="27" t="e"/>
-      <c r="S46" s="30" t="e"/>
-      <c r="T46" s="31" t="e"/>
+      <c r="S46" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T46" s="29" t="e"/>
       <c r="U46" s="29" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="V46" s="29" t="e"/>
       <c r="W46" s="29" t="s">
@@ -3519,7 +3628,7 @@
       </c>
       <c r="AD46" s="29" t="e"/>
       <c r="AE46" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF46" s="29" t="e"/>
       <c r="AG46" s="29" t="s">
@@ -3529,11 +3638,11 @@
     </row>
     <row r="47" ht="13" customHeight="true" outlineLevel="1">
       <c r="A47" s="27" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B47" s="27" t="e"/>
       <c r="C47" s="28" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D47" s="28" t="e"/>
       <c r="E47" s="27" t="s">
@@ -3553,23 +3662,21 @@
       </c>
       <c r="L47" s="27" t="e"/>
       <c r="M47" s="27" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="N47" s="27" t="e"/>
       <c r="O47" s="27" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="P47" s="27" t="e"/>
       <c r="Q47" s="27" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="R47" s="27" t="e"/>
-      <c r="S47" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="T47" s="29" t="e"/>
+      <c r="S47" s="30" t="e"/>
+      <c r="T47" s="31" t="e"/>
       <c r="U47" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="V47" s="29" t="e"/>
       <c r="W47" s="29" t="s">
@@ -3589,7 +3696,7 @@
       </c>
       <c r="AD47" s="29" t="e"/>
       <c r="AE47" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF47" s="29" t="e"/>
       <c r="AG47" s="29" t="s">
@@ -3599,11 +3706,11 @@
     </row>
     <row r="48" ht="13" customHeight="true" outlineLevel="1">
       <c r="A48" s="27" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B48" s="27" t="e"/>
       <c r="C48" s="28" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D48" s="28" t="e"/>
       <c r="E48" s="27" t="s">
@@ -3623,21 +3730,23 @@
       </c>
       <c r="L48" s="27" t="e"/>
       <c r="M48" s="27" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="N48" s="27" t="e"/>
       <c r="O48" s="27" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="P48" s="27" t="e"/>
       <c r="Q48" s="27" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="R48" s="27" t="e"/>
-      <c r="S48" s="30" t="e"/>
-      <c r="T48" s="31" t="e"/>
+      <c r="S48" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T48" s="29" t="e"/>
       <c r="U48" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="V48" s="29" t="e"/>
       <c r="W48" s="29" t="s">
@@ -3657,7 +3766,7 @@
       </c>
       <c r="AD48" s="29" t="e"/>
       <c r="AE48" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF48" s="29" t="e"/>
       <c r="AG48" s="29" t="s">
@@ -3667,11 +3776,11 @@
     </row>
     <row r="49" ht="13" customHeight="true" outlineLevel="1">
       <c r="A49" s="27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B49" s="27" t="e"/>
       <c r="C49" s="28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D49" s="28" t="e"/>
       <c r="E49" s="27" t="s">
@@ -3691,21 +3800,23 @@
       </c>
       <c r="L49" s="27" t="e"/>
       <c r="M49" s="27" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="N49" s="27" t="e"/>
       <c r="O49" s="27" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="P49" s="27" t="e"/>
       <c r="Q49" s="27" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="R49" s="27" t="e"/>
-      <c r="S49" s="30" t="e"/>
-      <c r="T49" s="31" t="e"/>
+      <c r="S49" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T49" s="29" t="e"/>
       <c r="U49" s="29" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="V49" s="29" t="e"/>
       <c r="W49" s="29" t="s">
@@ -3735,11 +3846,11 @@
     </row>
     <row r="50" ht="13" customHeight="true" outlineLevel="1">
       <c r="A50" s="27" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B50" s="27" t="e"/>
       <c r="C50" s="28" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D50" s="28" t="e"/>
       <c r="E50" s="27" t="s">
@@ -3759,23 +3870,23 @@
       </c>
       <c r="L50" s="27" t="e"/>
       <c r="M50" s="27" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="N50" s="27" t="e"/>
       <c r="O50" s="27" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="P50" s="27" t="e"/>
       <c r="Q50" s="27" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="R50" s="27" t="e"/>
       <c r="S50" s="29" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="T50" s="29" t="e"/>
       <c r="U50" s="29" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="V50" s="29" t="e"/>
       <c r="W50" s="29" t="s">
@@ -3805,11 +3916,11 @@
     </row>
     <row r="51" ht="13" customHeight="true" outlineLevel="1">
       <c r="A51" s="27" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B51" s="27" t="e"/>
       <c r="C51" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D51" s="28" t="e"/>
       <c r="E51" s="27" t="s">
@@ -3829,23 +3940,23 @@
       </c>
       <c r="L51" s="27" t="e"/>
       <c r="M51" s="27" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="N51" s="27" t="e"/>
       <c r="O51" s="27" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="P51" s="27" t="e"/>
       <c r="Q51" s="27" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="R51" s="27" t="e"/>
       <c r="S51" s="29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T51" s="29" t="e"/>
       <c r="U51" s="29" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="V51" s="29" t="e"/>
       <c r="W51" s="29" t="s">
@@ -3865,7 +3976,7 @@
       </c>
       <c r="AD51" s="29" t="e"/>
       <c r="AE51" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF51" s="29" t="e"/>
       <c r="AG51" s="29" t="s">
@@ -3875,11 +3986,11 @@
     </row>
     <row r="52" ht="13" customHeight="true" outlineLevel="1">
       <c r="A52" s="27" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B52" s="27" t="e"/>
       <c r="C52" s="28" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D52" s="28" t="e"/>
       <c r="E52" s="27" t="s">
@@ -3899,23 +4010,21 @@
       </c>
       <c r="L52" s="27" t="e"/>
       <c r="M52" s="27" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="N52" s="27" t="e"/>
       <c r="O52" s="27" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="P52" s="27" t="e"/>
       <c r="Q52" s="27" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="R52" s="27" t="e"/>
-      <c r="S52" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="T52" s="29" t="e"/>
+      <c r="S52" s="30" t="e"/>
+      <c r="T52" s="31" t="e"/>
       <c r="U52" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V52" s="29" t="e"/>
       <c r="W52" s="29" t="s">
@@ -3935,7 +4044,7 @@
       </c>
       <c r="AD52" s="29" t="e"/>
       <c r="AE52" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF52" s="29" t="e"/>
       <c r="AG52" s="29" t="s">
@@ -3945,11 +4054,11 @@
     </row>
     <row r="53" ht="13" customHeight="true" outlineLevel="1">
       <c r="A53" s="27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B53" s="27" t="e"/>
       <c r="C53" s="28" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D53" s="28" t="e"/>
       <c r="E53" s="27" t="s">
@@ -3969,23 +4078,21 @@
       </c>
       <c r="L53" s="27" t="e"/>
       <c r="M53" s="27" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N53" s="27" t="e"/>
       <c r="O53" s="27" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="P53" s="27" t="e"/>
       <c r="Q53" s="27" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="R53" s="27" t="e"/>
-      <c r="S53" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="T53" s="29" t="e"/>
+      <c r="S53" s="30" t="e"/>
+      <c r="T53" s="31" t="e"/>
       <c r="U53" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V53" s="29" t="e"/>
       <c r="W53" s="29" t="s">
@@ -4005,7 +4112,7 @@
       </c>
       <c r="AD53" s="29" t="e"/>
       <c r="AE53" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF53" s="29" t="e"/>
       <c r="AG53" s="29" t="s">
@@ -4015,11 +4122,11 @@
     </row>
     <row r="54" ht="13" customHeight="true" outlineLevel="1">
       <c r="A54" s="27" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B54" s="27" t="e"/>
       <c r="C54" s="28" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D54" s="28" t="e"/>
       <c r="E54" s="27" t="s">
@@ -4039,23 +4146,23 @@
       </c>
       <c r="L54" s="27" t="e"/>
       <c r="M54" s="27" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="N54" s="27" t="e"/>
       <c r="O54" s="27" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="P54" s="27" t="e"/>
       <c r="Q54" s="27" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="R54" s="27" t="e"/>
       <c r="S54" s="29" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="T54" s="29" t="e"/>
       <c r="U54" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V54" s="29" t="e"/>
       <c r="W54" s="29" t="s">
@@ -4085,11 +4192,11 @@
     </row>
     <row r="55" ht="13" customHeight="true" outlineLevel="1">
       <c r="A55" s="27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B55" s="27" t="e"/>
       <c r="C55" s="28" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D55" s="28" t="e"/>
       <c r="E55" s="27" t="s">
@@ -4109,27 +4216,25 @@
       </c>
       <c r="L55" s="27" t="e"/>
       <c r="M55" s="27" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N55" s="27" t="e"/>
       <c r="O55" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P55" s="27" t="e"/>
       <c r="Q55" s="27" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="R55" s="27" t="e"/>
-      <c r="S55" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="T55" s="29" t="e"/>
+      <c r="S55" s="30" t="e"/>
+      <c r="T55" s="31" t="e"/>
       <c r="U55" s="29" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="V55" s="29" t="e"/>
       <c r="W55" s="29" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="X55" s="29" t="e"/>
       <c r="Y55" s="29" t="s">
@@ -4155,11 +4260,11 @@
     </row>
     <row r="56" ht="13" customHeight="true" outlineLevel="1">
       <c r="A56" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B56" s="27" t="e"/>
       <c r="C56" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D56" s="28" t="e"/>
       <c r="E56" s="27" t="s">
@@ -4179,23 +4284,21 @@
       </c>
       <c r="L56" s="27" t="e"/>
       <c r="M56" s="27" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="N56" s="27" t="e"/>
-      <c r="O56" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="P56" s="32" t="e"/>
+      <c r="O56" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="P56" s="27" t="e"/>
       <c r="Q56" s="27" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="R56" s="27" t="e"/>
-      <c r="S56" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="T56" s="29" t="e"/>
+      <c r="S56" s="30" t="e"/>
+      <c r="T56" s="31" t="e"/>
       <c r="U56" s="29" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="V56" s="29" t="e"/>
       <c r="W56" s="29" t="s">
@@ -4225,11 +4328,11 @@
     </row>
     <row r="57" ht="13" customHeight="true" outlineLevel="1">
       <c r="A57" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B57" s="27" t="e"/>
       <c r="C57" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D57" s="28" t="e"/>
       <c r="E57" s="27" t="s">
@@ -4249,23 +4352,21 @@
       </c>
       <c r="L57" s="27" t="e"/>
       <c r="M57" s="27" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="N57" s="27" t="e"/>
       <c r="O57" s="27" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="P57" s="27" t="e"/>
       <c r="Q57" s="27" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="R57" s="27" t="e"/>
-      <c r="S57" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="T57" s="29" t="e"/>
+      <c r="S57" s="30" t="e"/>
+      <c r="T57" s="31" t="e"/>
       <c r="U57" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="V57" s="29" t="e"/>
       <c r="W57" s="29" t="s">
@@ -4295,11 +4396,11 @@
     </row>
     <row r="58" ht="13" customHeight="true" outlineLevel="1">
       <c r="A58" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B58" s="27" t="e"/>
       <c r="C58" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D58" s="28" t="e"/>
       <c r="E58" s="27" t="s">
@@ -4319,23 +4420,21 @@
       </c>
       <c r="L58" s="27" t="e"/>
       <c r="M58" s="27" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="N58" s="27" t="e"/>
       <c r="O58" s="27" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="P58" s="27" t="e"/>
       <c r="Q58" s="27" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="R58" s="27" t="e"/>
-      <c r="S58" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="T58" s="29" t="e"/>
+      <c r="S58" s="30" t="e"/>
+      <c r="T58" s="31" t="e"/>
       <c r="U58" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="V58" s="29" t="e"/>
       <c r="W58" s="29" t="s">
@@ -4365,11 +4464,11 @@
     </row>
     <row r="59" ht="13" customHeight="true" outlineLevel="1">
       <c r="A59" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B59" s="27" t="e"/>
       <c r="C59" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D59" s="28" t="e"/>
       <c r="E59" s="27" t="s">
@@ -4389,27 +4488,27 @@
       </c>
       <c r="L59" s="27" t="e"/>
       <c r="M59" s="27" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="N59" s="27" t="e"/>
       <c r="O59" s="27" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="P59" s="27" t="e"/>
       <c r="Q59" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R59" s="27" t="e"/>
       <c r="S59" s="29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T59" s="29" t="e"/>
       <c r="U59" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V59" s="29" t="e"/>
       <c r="W59" s="29" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="X59" s="29" t="e"/>
       <c r="Y59" s="29" t="s">
@@ -4425,7 +4524,7 @@
       </c>
       <c r="AD59" s="29" t="e"/>
       <c r="AE59" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF59" s="29" t="e"/>
       <c r="AG59" s="29" t="s">
@@ -4435,11 +4534,11 @@
     </row>
     <row r="60" ht="13" customHeight="true" outlineLevel="1">
       <c r="A60" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B60" s="27" t="e"/>
       <c r="C60" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D60" s="28" t="e"/>
       <c r="E60" s="27" t="s">
@@ -4459,27 +4558,27 @@
       </c>
       <c r="L60" s="27" t="e"/>
       <c r="M60" s="27" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="N60" s="27" t="e"/>
       <c r="O60" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P60" s="27" t="e"/>
       <c r="Q60" s="27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="R60" s="27" t="e"/>
       <c r="S60" s="29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T60" s="29" t="e"/>
       <c r="U60" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V60" s="29" t="e"/>
       <c r="W60" s="29" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="X60" s="29" t="e"/>
       <c r="Y60" s="29" t="s">
@@ -4505,11 +4604,11 @@
     </row>
     <row r="61" ht="13" customHeight="true" outlineLevel="1">
       <c r="A61" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B61" s="27" t="e"/>
       <c r="C61" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D61" s="28" t="e"/>
       <c r="E61" s="27" t="s">
@@ -4528,26 +4627,28 @@
         <v>30</v>
       </c>
       <c r="L61" s="27" t="e"/>
-      <c r="M61" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="N61" s="32" t="e"/>
+      <c r="M61" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="N61" s="27" t="e"/>
       <c r="O61" s="27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P61" s="27" t="e"/>
       <c r="Q61" s="27" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="R61" s="27" t="e"/>
-      <c r="S61" s="30" t="e"/>
-      <c r="T61" s="31" t="e"/>
+      <c r="S61" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="T61" s="29" t="e"/>
       <c r="U61" s="29" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="V61" s="29" t="e"/>
       <c r="W61" s="29" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="X61" s="29" t="e"/>
       <c r="Y61" s="29" t="s">
@@ -4563,7 +4664,7 @@
       </c>
       <c r="AD61" s="29" t="e"/>
       <c r="AE61" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF61" s="29" t="e"/>
       <c r="AG61" s="29" t="s">
@@ -4573,11 +4674,11 @@
     </row>
     <row r="62" ht="13" customHeight="true" outlineLevel="1">
       <c r="A62" s="27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B62" s="27" t="e"/>
       <c r="C62" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D62" s="28" t="e"/>
       <c r="E62" s="27" t="s">
@@ -4597,21 +4698,23 @@
       </c>
       <c r="L62" s="27" t="e"/>
       <c r="M62" s="27" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="N62" s="27" t="e"/>
       <c r="O62" s="27" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="P62" s="27" t="e"/>
       <c r="Q62" s="27" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="R62" s="27" t="e"/>
-      <c r="S62" s="30" t="e"/>
-      <c r="T62" s="31" t="e"/>
+      <c r="S62" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T62" s="29" t="e"/>
       <c r="U62" s="29" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="V62" s="29" t="e"/>
       <c r="W62" s="29" t="s">
@@ -4641,11 +4744,11 @@
     </row>
     <row r="63" ht="13" customHeight="true" outlineLevel="1">
       <c r="A63" s="27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B63" s="27" t="e"/>
       <c r="C63" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D63" s="28" t="e"/>
       <c r="E63" s="27" t="s">
@@ -4665,23 +4768,23 @@
       </c>
       <c r="L63" s="27" t="e"/>
       <c r="M63" s="27" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="N63" s="27" t="e"/>
       <c r="O63" s="27" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="P63" s="27" t="e"/>
       <c r="Q63" s="27" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="R63" s="27" t="e"/>
       <c r="S63" s="29" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="T63" s="29" t="e"/>
       <c r="U63" s="29" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="V63" s="29" t="e"/>
       <c r="W63" s="29" t="s">
@@ -4711,11 +4814,11 @@
     </row>
     <row r="64" ht="13" customHeight="true" outlineLevel="1">
       <c r="A64" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B64" s="27" t="e"/>
       <c r="C64" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D64" s="28" t="e"/>
       <c r="E64" s="27" t="s">
@@ -4735,21 +4838,23 @@
       </c>
       <c r="L64" s="27" t="e"/>
       <c r="M64" s="27" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="N64" s="27" t="e"/>
       <c r="O64" s="27" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="P64" s="27" t="e"/>
       <c r="Q64" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R64" s="27" t="e"/>
-      <c r="S64" s="30" t="e"/>
-      <c r="T64" s="31" t="e"/>
+      <c r="S64" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T64" s="29" t="e"/>
       <c r="U64" s="29" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="V64" s="29" t="e"/>
       <c r="W64" s="29" t="s">
@@ -4779,11 +4884,11 @@
     </row>
     <row r="65" ht="13" customHeight="true" outlineLevel="1">
       <c r="A65" s="27" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B65" s="27" t="e"/>
       <c r="C65" s="28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D65" s="28" t="e"/>
       <c r="E65" s="27" t="s">
@@ -4803,23 +4908,23 @@
       </c>
       <c r="L65" s="27" t="e"/>
       <c r="M65" s="27" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="N65" s="27" t="e"/>
       <c r="O65" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P65" s="27" t="e"/>
       <c r="Q65" s="27" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="R65" s="27" t="e"/>
       <c r="S65" s="29" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T65" s="29" t="e"/>
       <c r="U65" s="29" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="V65" s="29" t="e"/>
       <c r="W65" s="29" t="s">
@@ -4849,11 +4954,11 @@
     </row>
     <row r="66" ht="13" customHeight="true" outlineLevel="1">
       <c r="A66" s="27" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B66" s="27" t="e"/>
       <c r="C66" s="28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D66" s="28" t="e"/>
       <c r="E66" s="27" t="s">
@@ -4873,23 +4978,23 @@
       </c>
       <c r="L66" s="27" t="e"/>
       <c r="M66" s="27" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="N66" s="27" t="e"/>
-      <c r="O66" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="P66" s="27" t="e"/>
+      <c r="O66" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="P66" s="32" t="e"/>
       <c r="Q66" s="27" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="R66" s="27" t="e"/>
       <c r="S66" s="29" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="T66" s="29" t="e"/>
       <c r="U66" s="29" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="V66" s="29" t="e"/>
       <c r="W66" s="29" t="s">
@@ -4909,7 +5014,7 @@
       </c>
       <c r="AD66" s="29" t="e"/>
       <c r="AE66" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF66" s="29" t="e"/>
       <c r="AG66" s="29" t="s">
@@ -4919,11 +5024,11 @@
     </row>
     <row r="67" ht="13" customHeight="true" outlineLevel="1">
       <c r="A67" s="27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B67" s="27" t="e"/>
       <c r="C67" s="28" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D67" s="28" t="e"/>
       <c r="E67" s="27" t="s">
@@ -4943,27 +5048,27 @@
       </c>
       <c r="L67" s="27" t="e"/>
       <c r="M67" s="27" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="N67" s="27" t="e"/>
       <c r="O67" s="27" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="P67" s="27" t="e"/>
       <c r="Q67" s="27" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="R67" s="27" t="e"/>
       <c r="S67" s="29" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T67" s="29" t="e"/>
       <c r="U67" s="29" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="V67" s="29" t="e"/>
       <c r="W67" s="29" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="X67" s="29" t="e"/>
       <c r="Y67" s="29" t="s">
@@ -4989,11 +5094,11 @@
     </row>
     <row r="68" ht="13" customHeight="true" outlineLevel="1">
       <c r="A68" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B68" s="27" t="e"/>
       <c r="C68" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D68" s="28" t="e"/>
       <c r="E68" s="27" t="s">
@@ -5013,21 +5118,23 @@
       </c>
       <c r="L68" s="27" t="e"/>
       <c r="M68" s="27" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="N68" s="27" t="e"/>
       <c r="O68" s="27" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="P68" s="27" t="e"/>
       <c r="Q68" s="27" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="R68" s="27" t="e"/>
-      <c r="S68" s="30" t="e"/>
-      <c r="T68" s="31" t="e"/>
+      <c r="S68" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T68" s="29" t="e"/>
       <c r="U68" s="29" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="V68" s="29" t="e"/>
       <c r="W68" s="29" t="s">
@@ -5047,7 +5154,7 @@
       </c>
       <c r="AD68" s="29" t="e"/>
       <c r="AE68" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF68" s="29" t="e"/>
       <c r="AG68" s="29" t="s">
@@ -5057,11 +5164,11 @@
     </row>
     <row r="69" ht="13" customHeight="true" outlineLevel="1">
       <c r="A69" s="27" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B69" s="27" t="e"/>
       <c r="C69" s="28" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D69" s="28" t="e"/>
       <c r="E69" s="27" t="s">
@@ -5081,27 +5188,27 @@
       </c>
       <c r="L69" s="27" t="e"/>
       <c r="M69" s="27" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="N69" s="27" t="e"/>
       <c r="O69" s="27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P69" s="27" t="e"/>
       <c r="Q69" s="27" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="R69" s="27" t="e"/>
       <c r="S69" s="29" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="T69" s="29" t="e"/>
       <c r="U69" s="29" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="V69" s="29" t="e"/>
       <c r="W69" s="29" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="X69" s="29" t="e"/>
       <c r="Y69" s="29" t="s">
@@ -5127,11 +5234,11 @@
     </row>
     <row r="70" ht="13" customHeight="true" outlineLevel="1">
       <c r="A70" s="27" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B70" s="27" t="e"/>
       <c r="C70" s="28" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D70" s="28" t="e"/>
       <c r="E70" s="27" t="s">
@@ -5150,22 +5257,22 @@
         <v>30</v>
       </c>
       <c r="L70" s="27" t="e"/>
-      <c r="M70" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="N70" s="32" t="e"/>
+      <c r="M70" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="N70" s="27" t="e"/>
       <c r="O70" s="27" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="P70" s="27" t="e"/>
       <c r="Q70" s="27" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="R70" s="27" t="e"/>
       <c r="S70" s="30" t="e"/>
       <c r="T70" s="31" t="e"/>
       <c r="U70" s="29" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="V70" s="29" t="e"/>
       <c r="W70" s="29" t="s">
@@ -5195,11 +5302,11 @@
     </row>
     <row r="71" ht="13" customHeight="true" outlineLevel="1">
       <c r="A71" s="27" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B71" s="27" t="e"/>
       <c r="C71" s="28" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D71" s="28" t="e"/>
       <c r="E71" s="27" t="s">
@@ -5219,23 +5326,23 @@
       </c>
       <c r="L71" s="27" t="e"/>
       <c r="M71" s="27" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="N71" s="27" t="e"/>
       <c r="O71" s="27" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="P71" s="27" t="e"/>
       <c r="Q71" s="27" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="R71" s="27" t="e"/>
       <c r="S71" s="29" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="T71" s="29" t="e"/>
       <c r="U71" s="29" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="V71" s="29" t="e"/>
       <c r="W71" s="29" t="s">
@@ -5255,7 +5362,7 @@
       </c>
       <c r="AD71" s="29" t="e"/>
       <c r="AE71" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF71" s="29" t="e"/>
       <c r="AG71" s="29" t="s">
@@ -5265,11 +5372,11 @@
     </row>
     <row r="72" ht="13" customHeight="true" outlineLevel="1">
       <c r="A72" s="27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B72" s="27" t="e"/>
       <c r="C72" s="28" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D72" s="28" t="e"/>
       <c r="E72" s="27" t="s">
@@ -5289,23 +5396,23 @@
       </c>
       <c r="L72" s="27" t="e"/>
       <c r="M72" s="27" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="N72" s="27" t="e"/>
       <c r="O72" s="27" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="P72" s="27" t="e"/>
       <c r="Q72" s="27" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="R72" s="27" t="e"/>
       <c r="S72" s="29" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="T72" s="29" t="e"/>
       <c r="U72" s="29" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="V72" s="29" t="e"/>
       <c r="W72" s="29" t="s">
@@ -5335,11 +5442,11 @@
     </row>
     <row r="73" ht="13" customHeight="true" outlineLevel="1">
       <c r="A73" s="27" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B73" s="27" t="e"/>
       <c r="C73" s="28" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D73" s="28" t="e"/>
       <c r="E73" s="27" t="s">
@@ -5359,27 +5466,27 @@
       </c>
       <c r="L73" s="27" t="e"/>
       <c r="M73" s="27" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="N73" s="27" t="e"/>
       <c r="O73" s="27" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="P73" s="27" t="e"/>
       <c r="Q73" s="27" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="R73" s="27" t="e"/>
       <c r="S73" s="29" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="T73" s="29" t="e"/>
       <c r="U73" s="29" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="V73" s="29" t="e"/>
       <c r="W73" s="29" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="X73" s="29" t="e"/>
       <c r="Y73" s="29" t="s">
@@ -5395,7 +5502,7 @@
       </c>
       <c r="AD73" s="29" t="e"/>
       <c r="AE73" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF73" s="29" t="e"/>
       <c r="AG73" s="29" t="s">
@@ -5405,11 +5512,11 @@
     </row>
     <row r="74" ht="13" customHeight="true" outlineLevel="1">
       <c r="A74" s="27" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B74" s="27" t="e"/>
       <c r="C74" s="28" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D74" s="28" t="e"/>
       <c r="E74" s="27" t="s">
@@ -5428,28 +5535,26 @@
         <v>30</v>
       </c>
       <c r="L74" s="27" t="e"/>
-      <c r="M74" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="N74" s="27" t="e"/>
+      <c r="M74" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="N74" s="32" t="e"/>
       <c r="O74" s="27" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="P74" s="27" t="e"/>
       <c r="Q74" s="27" t="s">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="R74" s="27" t="e"/>
-      <c r="S74" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="T74" s="29" t="e"/>
+      <c r="S74" s="30" t="e"/>
+      <c r="T74" s="31" t="e"/>
       <c r="U74" s="29" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="V74" s="29" t="e"/>
       <c r="W74" s="29" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="X74" s="29" t="e"/>
       <c r="Y74" s="29" t="s">
@@ -5475,11 +5580,11 @@
     </row>
     <row r="75" ht="13" customHeight="true" outlineLevel="1">
       <c r="A75" s="27" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B75" s="27" t="e"/>
       <c r="C75" s="28" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D75" s="28" t="e"/>
       <c r="E75" s="27" t="s">
@@ -5499,21 +5604,21 @@
       </c>
       <c r="L75" s="27" t="e"/>
       <c r="M75" s="27" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="N75" s="27" t="e"/>
       <c r="O75" s="27" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="P75" s="27" t="e"/>
       <c r="Q75" s="27" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="R75" s="27" t="e"/>
       <c r="S75" s="30" t="e"/>
       <c r="T75" s="31" t="e"/>
       <c r="U75" s="29" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="V75" s="29" t="e"/>
       <c r="W75" s="29" t="s">
@@ -5533,7 +5638,7 @@
       </c>
       <c r="AD75" s="29" t="e"/>
       <c r="AE75" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF75" s="29" t="e"/>
       <c r="AG75" s="29" t="s">
@@ -5543,11 +5648,11 @@
     </row>
     <row r="76" ht="13" customHeight="true" outlineLevel="1">
       <c r="A76" s="27" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B76" s="27" t="e"/>
       <c r="C76" s="28" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D76" s="28" t="e"/>
       <c r="E76" s="27" t="s">
@@ -5567,27 +5672,27 @@
       </c>
       <c r="L76" s="27" t="e"/>
       <c r="M76" s="27" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="N76" s="27" t="e"/>
       <c r="O76" s="27" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="P76" s="27" t="e"/>
       <c r="Q76" s="27" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="R76" s="27" t="e"/>
       <c r="S76" s="29" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="T76" s="29" t="e"/>
       <c r="U76" s="29" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="V76" s="29" t="e"/>
       <c r="W76" s="29" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="X76" s="29" t="e"/>
       <c r="Y76" s="29" t="s">
@@ -5595,7 +5700,7 @@
       </c>
       <c r="Z76" s="29" t="e"/>
       <c r="AA76" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB76" s="29" t="e"/>
       <c r="AC76" s="29" t="s">
@@ -5603,7 +5708,7 @@
       </c>
       <c r="AD76" s="29" t="e"/>
       <c r="AE76" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF76" s="29" t="e"/>
       <c r="AG76" s="29" t="s">
@@ -5613,11 +5718,11 @@
     </row>
     <row r="77" ht="13" customHeight="true" outlineLevel="1">
       <c r="A77" s="27" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B77" s="27" t="e"/>
       <c r="C77" s="28" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D77" s="28" t="e"/>
       <c r="E77" s="27" t="s">
@@ -5637,27 +5742,27 @@
       </c>
       <c r="L77" s="27" t="e"/>
       <c r="M77" s="27" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="N77" s="27" t="e"/>
       <c r="O77" s="27" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="P77" s="27" t="e"/>
       <c r="Q77" s="27" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="R77" s="27" t="e"/>
       <c r="S77" s="29" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="T77" s="29" t="e"/>
       <c r="U77" s="29" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="V77" s="29" t="e"/>
       <c r="W77" s="29" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="X77" s="29" t="e"/>
       <c r="Y77" s="29" t="s">
@@ -5683,11 +5788,11 @@
     </row>
     <row r="78" ht="13" customHeight="true" outlineLevel="1">
       <c r="A78" s="27" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B78" s="27" t="e"/>
       <c r="C78" s="28" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D78" s="28" t="e"/>
       <c r="E78" s="27" t="s">
@@ -5707,23 +5812,21 @@
       </c>
       <c r="L78" s="27" t="e"/>
       <c r="M78" s="27" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="N78" s="27" t="e"/>
       <c r="O78" s="27" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="P78" s="27" t="e"/>
       <c r="Q78" s="27" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="R78" s="27" t="e"/>
-      <c r="S78" s="29" t="s">
+      <c r="S78" s="30" t="e"/>
+      <c r="T78" s="31" t="e"/>
+      <c r="U78" s="29" t="s">
         <v>42</v>
-      </c>
-      <c r="T78" s="29" t="e"/>
-      <c r="U78" s="29" t="s">
-        <v>212</v>
       </c>
       <c r="V78" s="29" t="e"/>
       <c r="W78" s="29" t="s">
@@ -5743,7 +5846,7 @@
       </c>
       <c r="AD78" s="29" t="e"/>
       <c r="AE78" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF78" s="29" t="e"/>
       <c r="AG78" s="29" t="s">
@@ -5753,11 +5856,11 @@
     </row>
     <row r="79" ht="13" customHeight="true" outlineLevel="1">
       <c r="A79" s="27" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B79" s="27" t="e"/>
       <c r="C79" s="28" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D79" s="28" t="e"/>
       <c r="E79" s="27" t="s">
@@ -5777,21 +5880,23 @@
       </c>
       <c r="L79" s="27" t="e"/>
       <c r="M79" s="27" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="N79" s="27" t="e"/>
       <c r="O79" s="27" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="P79" s="27" t="e"/>
       <c r="Q79" s="27" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="R79" s="27" t="e"/>
-      <c r="S79" s="30" t="e"/>
-      <c r="T79" s="31" t="e"/>
+      <c r="S79" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T79" s="29" t="e"/>
       <c r="U79" s="29" t="s">
-        <v>215</v>
+        <v>42</v>
       </c>
       <c r="V79" s="29" t="e"/>
       <c r="W79" s="29" t="s">
@@ -5811,7 +5916,7 @@
       </c>
       <c r="AD79" s="29" t="e"/>
       <c r="AE79" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF79" s="29" t="e"/>
       <c r="AG79" s="29" t="s">
@@ -5821,11 +5926,11 @@
     </row>
     <row r="80" ht="13" customHeight="true" outlineLevel="1">
       <c r="A80" s="27" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B80" s="27" t="e"/>
       <c r="C80" s="28" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D80" s="28" t="e"/>
       <c r="E80" s="27" t="s">
@@ -5845,21 +5950,23 @@
       </c>
       <c r="L80" s="27" t="e"/>
       <c r="M80" s="27" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="N80" s="27" t="e"/>
       <c r="O80" s="27" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="P80" s="27" t="e"/>
       <c r="Q80" s="27" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="R80" s="27" t="e"/>
-      <c r="S80" s="30" t="e"/>
-      <c r="T80" s="31" t="e"/>
+      <c r="S80" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T80" s="29" t="e"/>
       <c r="U80" s="29" t="s">
-        <v>215</v>
+        <v>42</v>
       </c>
       <c r="V80" s="29" t="e"/>
       <c r="W80" s="29" t="s">
@@ -5879,7 +5986,7 @@
       </c>
       <c r="AD80" s="29" t="e"/>
       <c r="AE80" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF80" s="29" t="e"/>
       <c r="AG80" s="29" t="s">
@@ -5889,11 +5996,11 @@
     </row>
     <row r="81" ht="13" customHeight="true" outlineLevel="1">
       <c r="A81" s="27" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B81" s="27" t="e"/>
       <c r="C81" s="28" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D81" s="28" t="e"/>
       <c r="E81" s="27" t="s">
@@ -5913,27 +6020,27 @@
       </c>
       <c r="L81" s="27" t="e"/>
       <c r="M81" s="27" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="N81" s="27" t="e"/>
       <c r="O81" s="27" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="P81" s="27" t="e"/>
       <c r="Q81" s="27" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="R81" s="27" t="e"/>
       <c r="S81" s="29" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="T81" s="29" t="e"/>
       <c r="U81" s="29" t="s">
-        <v>215</v>
+        <v>42</v>
       </c>
       <c r="V81" s="29" t="e"/>
       <c r="W81" s="29" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="X81" s="29" t="e"/>
       <c r="Y81" s="29" t="s">
@@ -5959,11 +6066,11 @@
     </row>
     <row r="82" ht="13" customHeight="true" outlineLevel="1">
       <c r="A82" s="27" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B82" s="27" t="e"/>
       <c r="C82" s="28" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D82" s="28" t="e"/>
       <c r="E82" s="27" t="s">
@@ -5983,27 +6090,27 @@
       </c>
       <c r="L82" s="27" t="e"/>
       <c r="M82" s="27" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="N82" s="27" t="e"/>
       <c r="O82" s="27" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="P82" s="27" t="e"/>
       <c r="Q82" s="27" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="R82" s="27" t="e"/>
       <c r="S82" s="29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T82" s="29" t="e"/>
       <c r="U82" s="29" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="V82" s="29" t="e"/>
       <c r="W82" s="29" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="X82" s="29" t="e"/>
       <c r="Y82" s="29" t="s">
@@ -6029,11 +6136,11 @@
     </row>
     <row r="83" ht="13" customHeight="true" outlineLevel="1">
       <c r="A83" s="27" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B83" s="27" t="e"/>
       <c r="C83" s="28" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D83" s="28" t="e"/>
       <c r="E83" s="27" t="s">
@@ -6053,23 +6160,21 @@
       </c>
       <c r="L83" s="27" t="e"/>
       <c r="M83" s="27" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="N83" s="27" t="e"/>
       <c r="O83" s="27" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="P83" s="27" t="e"/>
       <c r="Q83" s="27" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="R83" s="27" t="e"/>
-      <c r="S83" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="T83" s="29" t="e"/>
+      <c r="S83" s="30" t="e"/>
+      <c r="T83" s="31" t="e"/>
       <c r="U83" s="29" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="V83" s="29" t="e"/>
       <c r="W83" s="29" t="s">
@@ -6099,11 +6204,11 @@
     </row>
     <row r="84" ht="13" customHeight="true" outlineLevel="1">
       <c r="A84" s="27" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B84" s="27" t="e"/>
       <c r="C84" s="28" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D84" s="28" t="e"/>
       <c r="E84" s="27" t="s">
@@ -6122,22 +6227,22 @@
         <v>30</v>
       </c>
       <c r="L84" s="27" t="e"/>
-      <c r="M84" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="N84" s="27" t="e"/>
-      <c r="O84" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="P84" s="32" t="e"/>
+      <c r="M84" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="N84" s="32" t="e"/>
+      <c r="O84" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="P84" s="27" t="e"/>
       <c r="Q84" s="27" t="s">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="R84" s="27" t="e"/>
       <c r="S84" s="30" t="e"/>
       <c r="T84" s="31" t="e"/>
       <c r="U84" s="29" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="V84" s="29" t="e"/>
       <c r="W84" s="29" t="s">
@@ -6167,11 +6272,11 @@
     </row>
     <row r="85" ht="13" customHeight="true" outlineLevel="1">
       <c r="A85" s="27" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B85" s="27" t="e"/>
       <c r="C85" s="28" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D85" s="28" t="e"/>
       <c r="E85" s="27" t="s">
@@ -6191,27 +6296,27 @@
       </c>
       <c r="L85" s="27" t="e"/>
       <c r="M85" s="27" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="N85" s="27" t="e"/>
       <c r="O85" s="27" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="P85" s="27" t="e"/>
       <c r="Q85" s="27" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="R85" s="27" t="e"/>
       <c r="S85" s="29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T85" s="29" t="e"/>
       <c r="U85" s="29" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="V85" s="29" t="e"/>
       <c r="W85" s="29" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="X85" s="29" t="e"/>
       <c r="Y85" s="29" t="s">
@@ -6227,7 +6332,7 @@
       </c>
       <c r="AD85" s="29" t="e"/>
       <c r="AE85" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF85" s="29" t="e"/>
       <c r="AG85" s="29" t="s">
@@ -6237,11 +6342,11 @@
     </row>
     <row r="86" ht="13" customHeight="true" outlineLevel="1">
       <c r="A86" s="27" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B86" s="27" t="e"/>
       <c r="C86" s="28" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D86" s="28" t="e"/>
       <c r="E86" s="27" t="s">
@@ -6265,19 +6370,19 @@
       </c>
       <c r="N86" s="27" t="e"/>
       <c r="O86" s="27" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="P86" s="27" t="e"/>
       <c r="Q86" s="27" t="s">
-        <v>31</v>
+        <v>218</v>
       </c>
       <c r="R86" s="27" t="e"/>
       <c r="S86" s="29" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="T86" s="29" t="e"/>
       <c r="U86" s="29" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="V86" s="29" t="e"/>
       <c r="W86" s="29" t="s">
@@ -6307,11 +6412,11 @@
     </row>
     <row r="87" ht="13" customHeight="true" outlineLevel="1">
       <c r="A87" s="27" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B87" s="27" t="e"/>
       <c r="C87" s="28" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D87" s="28" t="e"/>
       <c r="E87" s="27" t="s">
@@ -6331,11 +6436,11 @@
       </c>
       <c r="L87" s="27" t="e"/>
       <c r="M87" s="27" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N87" s="27" t="e"/>
       <c r="O87" s="27" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="P87" s="27" t="e"/>
       <c r="Q87" s="27" t="s">
@@ -6345,7 +6450,7 @@
       <c r="S87" s="30" t="e"/>
       <c r="T87" s="31" t="e"/>
       <c r="U87" s="29" t="s">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="V87" s="29" t="e"/>
       <c r="W87" s="29" t="s">
@@ -6365,7 +6470,7 @@
       </c>
       <c r="AD87" s="29" t="e"/>
       <c r="AE87" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF87" s="29" t="e"/>
       <c r="AG87" s="29" t="s">
@@ -6375,11 +6480,11 @@
     </row>
     <row r="88" ht="13" customHeight="true" outlineLevel="1">
       <c r="A88" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B88" s="27" t="e"/>
       <c r="C88" s="28" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D88" s="28" t="e"/>
       <c r="E88" s="27" t="s">
@@ -6399,25 +6504,25 @@
       </c>
       <c r="L88" s="27" t="e"/>
       <c r="M88" s="27" t="s">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="N88" s="27" t="e"/>
       <c r="O88" s="27" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="P88" s="27" t="e"/>
       <c r="Q88" s="27" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="R88" s="27" t="e"/>
       <c r="S88" s="30" t="e"/>
       <c r="T88" s="31" t="e"/>
       <c r="U88" s="29" t="s">
-        <v>41</v>
+        <v>228</v>
       </c>
       <c r="V88" s="29" t="e"/>
       <c r="W88" s="29" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="X88" s="29" t="e"/>
       <c r="Y88" s="29" t="s">
@@ -6433,7 +6538,7 @@
       </c>
       <c r="AD88" s="29" t="e"/>
       <c r="AE88" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF88" s="29" t="e"/>
       <c r="AG88" s="29" t="s">
@@ -6443,11 +6548,11 @@
     </row>
     <row r="89" ht="13" customHeight="true" outlineLevel="1">
       <c r="A89" s="27" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B89" s="27" t="e"/>
       <c r="C89" s="28" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D89" s="28" t="e"/>
       <c r="E89" s="27" t="s">
@@ -6467,21 +6572,23 @@
       </c>
       <c r="L89" s="27" t="e"/>
       <c r="M89" s="27" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="N89" s="27" t="e"/>
       <c r="O89" s="27" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="P89" s="27" t="e"/>
       <c r="Q89" s="27" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="R89" s="27" t="e"/>
-      <c r="S89" s="30" t="e"/>
-      <c r="T89" s="31" t="e"/>
+      <c r="S89" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="T89" s="29" t="e"/>
       <c r="U89" s="29" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="V89" s="29" t="e"/>
       <c r="W89" s="29" t="s">
@@ -6501,7 +6608,7 @@
       </c>
       <c r="AD89" s="29" t="e"/>
       <c r="AE89" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF89" s="29" t="e"/>
       <c r="AG89" s="29" t="s">
@@ -6511,11 +6618,11 @@
     </row>
     <row r="90" ht="13" customHeight="true" outlineLevel="1">
       <c r="A90" s="27" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B90" s="27" t="e"/>
       <c r="C90" s="28" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D90" s="28" t="e"/>
       <c r="E90" s="27" t="s">
@@ -6535,11 +6642,11 @@
       </c>
       <c r="L90" s="27" t="e"/>
       <c r="M90" s="27" t="s">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="N90" s="27" t="e"/>
       <c r="O90" s="27" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="P90" s="27" t="e"/>
       <c r="Q90" s="27" t="s">
@@ -6547,15 +6654,15 @@
       </c>
       <c r="R90" s="27" t="e"/>
       <c r="S90" s="29" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="T90" s="29" t="e"/>
       <c r="U90" s="29" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="V90" s="29" t="e"/>
       <c r="W90" s="29" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="X90" s="29" t="e"/>
       <c r="Y90" s="29" t="s">
@@ -6581,11 +6688,11 @@
     </row>
     <row r="91" ht="13" customHeight="true" outlineLevel="1">
       <c r="A91" s="27" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B91" s="27" t="e"/>
       <c r="C91" s="28" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D91" s="28" t="e"/>
       <c r="E91" s="27" t="s">
@@ -6605,21 +6712,21 @@
       </c>
       <c r="L91" s="27" t="e"/>
       <c r="M91" s="27" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="N91" s="27" t="e"/>
       <c r="O91" s="27" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="P91" s="27" t="e"/>
       <c r="Q91" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R91" s="27" t="e"/>
       <c r="S91" s="30" t="e"/>
       <c r="T91" s="31" t="e"/>
       <c r="U91" s="29" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="V91" s="29" t="e"/>
       <c r="W91" s="29" t="s">
@@ -6649,11 +6756,11 @@
     </row>
     <row r="92" ht="13" customHeight="true" outlineLevel="1">
       <c r="A92" s="27" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B92" s="27" t="e"/>
       <c r="C92" s="28" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D92" s="28" t="e"/>
       <c r="E92" s="27" t="s">
@@ -6673,21 +6780,23 @@
       </c>
       <c r="L92" s="27" t="e"/>
       <c r="M92" s="27" t="s">
-        <v>240</v>
+        <v>39</v>
       </c>
       <c r="N92" s="27" t="e"/>
       <c r="O92" s="27" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="P92" s="27" t="e"/>
       <c r="Q92" s="27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="R92" s="27" t="e"/>
-      <c r="S92" s="30" t="e"/>
-      <c r="T92" s="31" t="e"/>
+      <c r="S92" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="T92" s="29" t="e"/>
       <c r="U92" s="29" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="V92" s="29" t="e"/>
       <c r="W92" s="29" t="s">
@@ -6717,11 +6826,11 @@
     </row>
     <row r="93" ht="13" customHeight="true" outlineLevel="1">
       <c r="A93" s="27" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="B93" s="27" t="e"/>
       <c r="C93" s="28" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D93" s="28" t="e"/>
       <c r="E93" s="27" t="s">
@@ -6741,21 +6850,23 @@
       </c>
       <c r="L93" s="27" t="e"/>
       <c r="M93" s="27" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="N93" s="27" t="e"/>
       <c r="O93" s="27" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="P93" s="27" t="e"/>
       <c r="Q93" s="27" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="R93" s="27" t="e"/>
-      <c r="S93" s="30" t="e"/>
-      <c r="T93" s="31" t="e"/>
+      <c r="S93" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T93" s="29" t="e"/>
       <c r="U93" s="29" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="V93" s="29" t="e"/>
       <c r="W93" s="29" t="s">
@@ -6767,7 +6878,7 @@
       </c>
       <c r="Z93" s="29" t="e"/>
       <c r="AA93" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB93" s="29" t="e"/>
       <c r="AC93" s="29" t="s">
@@ -6785,11 +6896,11 @@
     </row>
     <row r="94" ht="13" customHeight="true" outlineLevel="1">
       <c r="A94" s="27" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B94" s="27" t="e"/>
       <c r="C94" s="28" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D94" s="28" t="e"/>
       <c r="E94" s="27" t="s">
@@ -6809,25 +6920,27 @@
       </c>
       <c r="L94" s="27" t="e"/>
       <c r="M94" s="27" t="s">
-        <v>71</v>
+        <v>218</v>
       </c>
       <c r="N94" s="27" t="e"/>
       <c r="O94" s="27" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="P94" s="27" t="e"/>
       <c r="Q94" s="27" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R94" s="27" t="e"/>
-      <c r="S94" s="30" t="e"/>
-      <c r="T94" s="31" t="e"/>
+      <c r="S94" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T94" s="29" t="e"/>
       <c r="U94" s="29" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="V94" s="29" t="e"/>
       <c r="W94" s="29" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="X94" s="29" t="e"/>
       <c r="Y94" s="29" t="s">
@@ -6853,11 +6966,11 @@
     </row>
     <row r="95" ht="13" customHeight="true" outlineLevel="1">
       <c r="A95" s="27" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B95" s="27" t="e"/>
       <c r="C95" s="28" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D95" s="28" t="e"/>
       <c r="E95" s="27" t="s">
@@ -6877,23 +6990,23 @@
       </c>
       <c r="L95" s="27" t="e"/>
       <c r="M95" s="27" t="s">
-        <v>235</v>
+        <v>112</v>
       </c>
       <c r="N95" s="27" t="e"/>
       <c r="O95" s="27" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="P95" s="27" t="e"/>
       <c r="Q95" s="27" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="R95" s="27" t="e"/>
       <c r="S95" s="29" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="T95" s="29" t="e"/>
       <c r="U95" s="29" t="s">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="V95" s="29" t="e"/>
       <c r="W95" s="29" t="s">
@@ -6923,11 +7036,11 @@
     </row>
     <row r="96" ht="13" customHeight="true" outlineLevel="1">
       <c r="A96" s="27" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B96" s="27" t="e"/>
       <c r="C96" s="28" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D96" s="28" t="e"/>
       <c r="E96" s="27" t="s">
@@ -6947,23 +7060,21 @@
       </c>
       <c r="L96" s="27" t="e"/>
       <c r="M96" s="27" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="N96" s="27" t="e"/>
       <c r="O96" s="27" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="P96" s="27" t="e"/>
       <c r="Q96" s="27" t="s">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="R96" s="27" t="e"/>
-      <c r="S96" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="T96" s="29" t="e"/>
+      <c r="S96" s="30" t="e"/>
+      <c r="T96" s="31" t="e"/>
       <c r="U96" s="29" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="V96" s="29" t="e"/>
       <c r="W96" s="29" t="s">
@@ -6983,7 +7094,7 @@
       </c>
       <c r="AD96" s="29" t="e"/>
       <c r="AE96" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF96" s="29" t="e"/>
       <c r="AG96" s="29" t="s">
@@ -6993,11 +7104,11 @@
     </row>
     <row r="97" ht="13" customHeight="true" outlineLevel="1">
       <c r="A97" s="27" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B97" s="27" t="e"/>
       <c r="C97" s="28" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D97" s="28" t="e"/>
       <c r="E97" s="27" t="s">
@@ -7017,25 +7128,27 @@
       </c>
       <c r="L97" s="27" t="e"/>
       <c r="M97" s="27" t="s">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="N97" s="27" t="e"/>
       <c r="O97" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P97" s="27" t="e"/>
       <c r="Q97" s="27" t="s">
-        <v>235</v>
+        <v>39</v>
       </c>
       <c r="R97" s="27" t="e"/>
-      <c r="S97" s="30" t="e"/>
-      <c r="T97" s="31" t="e"/>
+      <c r="S97" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T97" s="29" t="e"/>
       <c r="U97" s="29" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="V97" s="29" t="e"/>
       <c r="W97" s="29" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="X97" s="29" t="e"/>
       <c r="Y97" s="29" t="s">
@@ -7061,11 +7174,11 @@
     </row>
     <row r="98" ht="13" customHeight="true" outlineLevel="1">
       <c r="A98" s="27" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B98" s="27" t="e"/>
       <c r="C98" s="28" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D98" s="28" t="e"/>
       <c r="E98" s="27" t="s">
@@ -7085,25 +7198,25 @@
       </c>
       <c r="L98" s="27" t="e"/>
       <c r="M98" s="27" t="s">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="N98" s="27" t="e"/>
       <c r="O98" s="27" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="P98" s="27" t="e"/>
       <c r="Q98" s="27" t="s">
-        <v>235</v>
+        <v>41</v>
       </c>
       <c r="R98" s="27" t="e"/>
       <c r="S98" s="30" t="e"/>
       <c r="T98" s="31" t="e"/>
       <c r="U98" s="29" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="V98" s="29" t="e"/>
       <c r="W98" s="29" t="s">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="X98" s="29" t="e"/>
       <c r="Y98" s="29" t="s">
@@ -7119,7 +7232,7 @@
       </c>
       <c r="AD98" s="29" t="e"/>
       <c r="AE98" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF98" s="29" t="e"/>
       <c r="AG98" s="29" t="s">
@@ -7129,11 +7242,11 @@
     </row>
     <row r="99" ht="13" customHeight="true" outlineLevel="1">
       <c r="A99" s="27" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B99" s="27" t="e"/>
       <c r="C99" s="28" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D99" s="28" t="e"/>
       <c r="E99" s="27" t="s">
@@ -7153,23 +7266,21 @@
       </c>
       <c r="L99" s="27" t="e"/>
       <c r="M99" s="27" t="s">
-        <v>227</v>
+        <v>71</v>
       </c>
       <c r="N99" s="27" t="e"/>
       <c r="O99" s="27" t="s">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="P99" s="27" t="e"/>
       <c r="Q99" s="27" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="R99" s="27" t="e"/>
-      <c r="S99" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="T99" s="29" t="e"/>
+      <c r="S99" s="30" t="e"/>
+      <c r="T99" s="31" t="e"/>
       <c r="U99" s="29" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="V99" s="29" t="e"/>
       <c r="W99" s="29" t="s">
@@ -7189,7 +7300,7 @@
       </c>
       <c r="AD99" s="29" t="e"/>
       <c r="AE99" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF99" s="29" t="e"/>
       <c r="AG99" s="29" t="s">
@@ -7199,11 +7310,11 @@
     </row>
     <row r="100" ht="13" customHeight="true" outlineLevel="1">
       <c r="A100" s="27" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="B100" s="27" t="e"/>
       <c r="C100" s="28" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D100" s="28" t="e"/>
       <c r="E100" s="27" t="s">
@@ -7223,21 +7334,23 @@
       </c>
       <c r="L100" s="27" t="e"/>
       <c r="M100" s="27" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="N100" s="27" t="e"/>
       <c r="O100" s="27" t="s">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="P100" s="27" t="e"/>
       <c r="Q100" s="27" t="s">
-        <v>224</v>
+        <v>85</v>
       </c>
       <c r="R100" s="27" t="e"/>
-      <c r="S100" s="30" t="e"/>
-      <c r="T100" s="31" t="e"/>
+      <c r="S100" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T100" s="29" t="e"/>
       <c r="U100" s="29" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="V100" s="29" t="e"/>
       <c r="W100" s="29" t="s">
@@ -7267,11 +7380,11 @@
     </row>
     <row r="101" ht="13" customHeight="true" outlineLevel="1">
       <c r="A101" s="27" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B101" s="27" t="e"/>
       <c r="C101" s="28" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D101" s="28" t="e"/>
       <c r="E101" s="27" t="s">
@@ -7290,20 +7403,24 @@
         <v>30</v>
       </c>
       <c r="L101" s="27" t="e"/>
-      <c r="M101" s="33" t="e"/>
-      <c r="N101" s="34" t="e"/>
+      <c r="M101" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="N101" s="27" t="e"/>
       <c r="O101" s="27" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="P101" s="27" t="e"/>
       <c r="Q101" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R101" s="27" t="e"/>
-      <c r="S101" s="30" t="e"/>
-      <c r="T101" s="31" t="e"/>
+      <c r="S101" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T101" s="29" t="e"/>
       <c r="U101" s="29" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="V101" s="29" t="e"/>
       <c r="W101" s="29" t="s">
@@ -7323,7 +7440,7 @@
       </c>
       <c r="AD101" s="29" t="e"/>
       <c r="AE101" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF101" s="29" t="e"/>
       <c r="AG101" s="29" t="s">
@@ -7333,11 +7450,11 @@
     </row>
     <row r="102" ht="13" customHeight="true" outlineLevel="1">
       <c r="A102" s="27" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B102" s="27" t="e"/>
       <c r="C102" s="28" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="D102" s="28" t="e"/>
       <c r="E102" s="27" t="s">
@@ -7356,24 +7473,26 @@
         <v>30</v>
       </c>
       <c r="L102" s="27" t="e"/>
-      <c r="M102" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="N102" s="35" t="e"/>
-      <c r="O102" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="P102" s="35" t="e"/>
-      <c r="Q102" s="33" t="e"/>
-      <c r="R102" s="34" t="e"/>
+      <c r="M102" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N102" s="27" t="e"/>
+      <c r="O102" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="P102" s="32" t="e"/>
+      <c r="Q102" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="R102" s="27" t="e"/>
       <c r="S102" s="30" t="e"/>
       <c r="T102" s="31" t="e"/>
       <c r="U102" s="29" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="V102" s="29" t="e"/>
       <c r="W102" s="29" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="X102" s="29" t="e"/>
       <c r="Y102" s="29" t="s">
@@ -7399,11 +7518,11 @@
     </row>
     <row r="103" ht="13" customHeight="true" outlineLevel="1">
       <c r="A103" s="27" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B103" s="27" t="e"/>
       <c r="C103" s="28" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D103" s="28" t="e"/>
       <c r="E103" s="27" t="s">
@@ -7422,24 +7541,28 @@
         <v>30</v>
       </c>
       <c r="L103" s="27" t="e"/>
-      <c r="M103" s="33" t="e"/>
-      <c r="N103" s="34" t="e"/>
-      <c r="O103" s="33" t="e"/>
-      <c r="P103" s="34" t="e"/>
+      <c r="M103" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="N103" s="27" t="e"/>
+      <c r="O103" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="P103" s="27" t="e"/>
       <c r="Q103" s="27" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="R103" s="27" t="e"/>
       <c r="S103" s="29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T103" s="29" t="e"/>
       <c r="U103" s="29" t="s">
-        <v>44</v>
+        <v>253</v>
       </c>
       <c r="V103" s="29" t="e"/>
       <c r="W103" s="29" t="s">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="X103" s="29" t="e"/>
       <c r="Y103" s="29" t="s">
@@ -7465,11 +7588,11 @@
     </row>
     <row r="104" ht="13" customHeight="true" outlineLevel="1">
       <c r="A104" s="27" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="B104" s="27" t="e"/>
       <c r="C104" s="28" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D104" s="28" t="e"/>
       <c r="E104" s="27" t="s">
@@ -7488,18 +7611,28 @@
         <v>30</v>
       </c>
       <c r="L104" s="27" t="e"/>
-      <c r="M104" s="33" t="e"/>
-      <c r="N104" s="34" t="e"/>
-      <c r="O104" s="33" t="e"/>
-      <c r="P104" s="34" t="e"/>
-      <c r="Q104" s="33" t="e"/>
-      <c r="R104" s="34" t="e"/>
-      <c r="S104" s="30" t="e"/>
-      <c r="T104" s="31" t="e"/>
-      <c r="U104" s="30" t="e"/>
-      <c r="V104" s="31" t="e"/>
+      <c r="M104" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N104" s="27" t="e"/>
+      <c r="O104" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="P104" s="27" t="e"/>
+      <c r="Q104" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="R104" s="27" t="e"/>
+      <c r="S104" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="T104" s="29" t="e"/>
+      <c r="U104" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="V104" s="29" t="e"/>
       <c r="W104" s="29" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="X104" s="29" t="e"/>
       <c r="Y104" s="29" t="s">
@@ -7525,11 +7658,11 @@
     </row>
     <row r="105" ht="13" customHeight="true" outlineLevel="1">
       <c r="A105" s="27" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B105" s="27" t="e"/>
       <c r="C105" s="28" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D105" s="28" t="e"/>
       <c r="E105" s="27" t="s">
@@ -7548,16 +7681,26 @@
         <v>30</v>
       </c>
       <c r="L105" s="27" t="e"/>
-      <c r="M105" s="33" t="e"/>
-      <c r="N105" s="34" t="e"/>
-      <c r="O105" s="33" t="e"/>
-      <c r="P105" s="34" t="e"/>
-      <c r="Q105" s="33" t="e"/>
-      <c r="R105" s="34" t="e"/>
-      <c r="S105" s="30" t="e"/>
-      <c r="T105" s="31" t="e"/>
-      <c r="U105" s="30" t="e"/>
-      <c r="V105" s="31" t="e"/>
+      <c r="M105" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="N105" s="27" t="e"/>
+      <c r="O105" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="P105" s="27" t="e"/>
+      <c r="Q105" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="R105" s="27" t="e"/>
+      <c r="S105" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="T105" s="29" t="e"/>
+      <c r="U105" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="V105" s="29" t="e"/>
       <c r="W105" s="29" t="s">
         <v>36</v>
       </c>
@@ -7575,7 +7718,7 @@
       </c>
       <c r="AD105" s="29" t="e"/>
       <c r="AE105" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF105" s="29" t="e"/>
       <c r="AG105" s="29" t="s">
@@ -7583,9 +7726,1513 @@
       </c>
       <c r="AH105" s="29" t="e"/>
     </row>
-    <row r="106" ht="10" customHeight="true" s="1" customFormat="true"/>
+    <row r="106" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A106" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B106" s="27" t="e"/>
+      <c r="C106" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="D106" s="28" t="e"/>
+      <c r="E106" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F106" s="27" t="e"/>
+      <c r="G106" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H106" s="27" t="e"/>
+      <c r="I106" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J106" s="27" t="e"/>
+      <c r="K106" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L106" s="27" t="e"/>
+      <c r="M106" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="N106" s="27" t="e"/>
+      <c r="O106" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="P106" s="27" t="e"/>
+      <c r="Q106" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="R106" s="27" t="e"/>
+      <c r="S106" s="30" t="e"/>
+      <c r="T106" s="31" t="e"/>
+      <c r="U106" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="V106" s="29" t="e"/>
+      <c r="W106" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="X106" s="29" t="e"/>
+      <c r="Y106" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z106" s="29" t="e"/>
+      <c r="AA106" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB106" s="29" t="e"/>
+      <c r="AC106" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD106" s="29" t="e"/>
+      <c r="AE106" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF106" s="29" t="e"/>
+      <c r="AG106" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH106" s="29" t="e"/>
+    </row>
+    <row r="107" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A107" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B107" s="27" t="e"/>
+      <c r="C107" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="D107" s="28" t="e"/>
+      <c r="E107" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F107" s="27" t="e"/>
+      <c r="G107" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H107" s="27" t="e"/>
+      <c r="I107" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J107" s="27" t="e"/>
+      <c r="K107" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L107" s="27" t="e"/>
+      <c r="M107" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="N107" s="27" t="e"/>
+      <c r="O107" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="P107" s="27" t="e"/>
+      <c r="Q107" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="R107" s="27" t="e"/>
+      <c r="S107" s="30" t="e"/>
+      <c r="T107" s="31" t="e"/>
+      <c r="U107" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="V107" s="29" t="e"/>
+      <c r="W107" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="X107" s="29" t="e"/>
+      <c r="Y107" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z107" s="29" t="e"/>
+      <c r="AA107" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB107" s="29" t="e"/>
+      <c r="AC107" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD107" s="29" t="e"/>
+      <c r="AE107" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF107" s="29" t="e"/>
+      <c r="AG107" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH107" s="29" t="e"/>
+    </row>
+    <row r="108" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A108" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B108" s="27" t="e"/>
+      <c r="C108" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="D108" s="28" t="e"/>
+      <c r="E108" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F108" s="27" t="e"/>
+      <c r="G108" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H108" s="27" t="e"/>
+      <c r="I108" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J108" s="27" t="e"/>
+      <c r="K108" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L108" s="27" t="e"/>
+      <c r="M108" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="N108" s="27" t="e"/>
+      <c r="O108" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="P108" s="27" t="e"/>
+      <c r="Q108" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="R108" s="27" t="e"/>
+      <c r="S108" s="30" t="e"/>
+      <c r="T108" s="31" t="e"/>
+      <c r="U108" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="V108" s="29" t="e"/>
+      <c r="W108" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="X108" s="29" t="e"/>
+      <c r="Y108" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z108" s="29" t="e"/>
+      <c r="AA108" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB108" s="29" t="e"/>
+      <c r="AC108" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD108" s="29" t="e"/>
+      <c r="AE108" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF108" s="29" t="e"/>
+      <c r="AG108" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH108" s="29" t="e"/>
+    </row>
+    <row r="109" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A109" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B109" s="27" t="e"/>
+      <c r="C109" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D109" s="28" t="e"/>
+      <c r="E109" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F109" s="27" t="e"/>
+      <c r="G109" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H109" s="27" t="e"/>
+      <c r="I109" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J109" s="27" t="e"/>
+      <c r="K109" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L109" s="27" t="e"/>
+      <c r="M109" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="N109" s="27" t="e"/>
+      <c r="O109" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="P109" s="27" t="e"/>
+      <c r="Q109" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="R109" s="27" t="e"/>
+      <c r="S109" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T109" s="29" t="e"/>
+      <c r="U109" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="V109" s="29" t="e"/>
+      <c r="W109" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="X109" s="29" t="e"/>
+      <c r="Y109" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z109" s="29" t="e"/>
+      <c r="AA109" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB109" s="29" t="e"/>
+      <c r="AC109" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD109" s="29" t="e"/>
+      <c r="AE109" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF109" s="29" t="e"/>
+      <c r="AG109" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH109" s="29" t="e"/>
+    </row>
+    <row r="110" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A110" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B110" s="27" t="e"/>
+      <c r="C110" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="D110" s="28" t="e"/>
+      <c r="E110" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F110" s="27" t="e"/>
+      <c r="G110" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H110" s="27" t="e"/>
+      <c r="I110" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J110" s="27" t="e"/>
+      <c r="K110" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L110" s="27" t="e"/>
+      <c r="M110" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N110" s="27" t="e"/>
+      <c r="O110" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="P110" s="27" t="e"/>
+      <c r="Q110" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="R110" s="27" t="e"/>
+      <c r="S110" s="30" t="e"/>
+      <c r="T110" s="31" t="e"/>
+      <c r="U110" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="V110" s="29" t="e"/>
+      <c r="W110" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="X110" s="29" t="e"/>
+      <c r="Y110" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z110" s="29" t="e"/>
+      <c r="AA110" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB110" s="29" t="e"/>
+      <c r="AC110" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD110" s="29" t="e"/>
+      <c r="AE110" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF110" s="29" t="e"/>
+      <c r="AG110" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH110" s="29" t="e"/>
+    </row>
+    <row r="111" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A111" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B111" s="27" t="e"/>
+      <c r="C111" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="D111" s="28" t="e"/>
+      <c r="E111" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F111" s="27" t="e"/>
+      <c r="G111" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H111" s="27" t="e"/>
+      <c r="I111" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J111" s="27" t="e"/>
+      <c r="K111" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L111" s="27" t="e"/>
+      <c r="M111" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="N111" s="27" t="e"/>
+      <c r="O111" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="P111" s="27" t="e"/>
+      <c r="Q111" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="R111" s="27" t="e"/>
+      <c r="S111" s="30" t="e"/>
+      <c r="T111" s="31" t="e"/>
+      <c r="U111" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="V111" s="29" t="e"/>
+      <c r="W111" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="X111" s="29" t="e"/>
+      <c r="Y111" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z111" s="29" t="e"/>
+      <c r="AA111" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB111" s="29" t="e"/>
+      <c r="AC111" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD111" s="29" t="e"/>
+      <c r="AE111" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF111" s="29" t="e"/>
+      <c r="AG111" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH111" s="29" t="e"/>
+    </row>
+    <row r="112" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A112" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" s="27" t="e"/>
+      <c r="C112" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="D112" s="28" t="e"/>
+      <c r="E112" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F112" s="27" t="e"/>
+      <c r="G112" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H112" s="27" t="e"/>
+      <c r="I112" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J112" s="27" t="e"/>
+      <c r="K112" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L112" s="27" t="e"/>
+      <c r="M112" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="N112" s="27" t="e"/>
+      <c r="O112" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="P112" s="27" t="e"/>
+      <c r="Q112" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="R112" s="27" t="e"/>
+      <c r="S112" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="T112" s="29" t="e"/>
+      <c r="U112" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="V112" s="29" t="e"/>
+      <c r="W112" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="X112" s="29" t="e"/>
+      <c r="Y112" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z112" s="29" t="e"/>
+      <c r="AA112" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB112" s="29" t="e"/>
+      <c r="AC112" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD112" s="29" t="e"/>
+      <c r="AE112" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF112" s="29" t="e"/>
+      <c r="AG112" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH112" s="29" t="e"/>
+    </row>
+    <row r="113" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A113" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B113" s="27" t="e"/>
+      <c r="C113" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D113" s="28" t="e"/>
+      <c r="E113" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F113" s="27" t="e"/>
+      <c r="G113" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H113" s="27" t="e"/>
+      <c r="I113" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J113" s="27" t="e"/>
+      <c r="K113" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L113" s="27" t="e"/>
+      <c r="M113" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="N113" s="27" t="e"/>
+      <c r="O113" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="P113" s="27" t="e"/>
+      <c r="Q113" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="R113" s="27" t="e"/>
+      <c r="S113" s="30" t="e"/>
+      <c r="T113" s="31" t="e"/>
+      <c r="U113" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="V113" s="29" t="e"/>
+      <c r="W113" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="X113" s="29" t="e"/>
+      <c r="Y113" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z113" s="29" t="e"/>
+      <c r="AA113" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB113" s="29" t="e"/>
+      <c r="AC113" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD113" s="29" t="e"/>
+      <c r="AE113" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF113" s="29" t="e"/>
+      <c r="AG113" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH113" s="29" t="e"/>
+    </row>
+    <row r="114" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A114" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B114" s="27" t="e"/>
+      <c r="C114" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D114" s="28" t="e"/>
+      <c r="E114" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114" s="27" t="e"/>
+      <c r="G114" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H114" s="27" t="e"/>
+      <c r="I114" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J114" s="27" t="e"/>
+      <c r="K114" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L114" s="27" t="e"/>
+      <c r="M114" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N114" s="27" t="e"/>
+      <c r="O114" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="P114" s="27" t="e"/>
+      <c r="Q114" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="R114" s="27" t="e"/>
+      <c r="S114" s="30" t="e"/>
+      <c r="T114" s="31" t="e"/>
+      <c r="U114" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="V114" s="29" t="e"/>
+      <c r="W114" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="X114" s="29" t="e"/>
+      <c r="Y114" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z114" s="29" t="e"/>
+      <c r="AA114" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB114" s="29" t="e"/>
+      <c r="AC114" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD114" s="29" t="e"/>
+      <c r="AE114" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF114" s="29" t="e"/>
+      <c r="AG114" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH114" s="29" t="e"/>
+    </row>
+    <row r="115" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A115" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B115" s="27" t="e"/>
+      <c r="C115" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="D115" s="28" t="e"/>
+      <c r="E115" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F115" s="27" t="e"/>
+      <c r="G115" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H115" s="27" t="e"/>
+      <c r="I115" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J115" s="27" t="e"/>
+      <c r="K115" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L115" s="27" t="e"/>
+      <c r="M115" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="N115" s="27" t="e"/>
+      <c r="O115" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="P115" s="27" t="e"/>
+      <c r="Q115" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="R115" s="27" t="e"/>
+      <c r="S115" s="30" t="e"/>
+      <c r="T115" s="31" t="e"/>
+      <c r="U115" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="V115" s="29" t="e"/>
+      <c r="W115" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="X115" s="29" t="e"/>
+      <c r="Y115" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z115" s="29" t="e"/>
+      <c r="AA115" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB115" s="29" t="e"/>
+      <c r="AC115" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD115" s="29" t="e"/>
+      <c r="AE115" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF115" s="29" t="e"/>
+      <c r="AG115" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH115" s="29" t="e"/>
+    </row>
+    <row r="116" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A116" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B116" s="27" t="e"/>
+      <c r="C116" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="D116" s="28" t="e"/>
+      <c r="E116" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F116" s="27" t="e"/>
+      <c r="G116" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H116" s="27" t="e"/>
+      <c r="I116" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J116" s="27" t="e"/>
+      <c r="K116" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L116" s="27" t="e"/>
+      <c r="M116" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="N116" s="27" t="e"/>
+      <c r="O116" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="P116" s="27" t="e"/>
+      <c r="Q116" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="R116" s="27" t="e"/>
+      <c r="S116" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T116" s="29" t="e"/>
+      <c r="U116" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="V116" s="29" t="e"/>
+      <c r="W116" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="X116" s="29" t="e"/>
+      <c r="Y116" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z116" s="29" t="e"/>
+      <c r="AA116" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB116" s="29" t="e"/>
+      <c r="AC116" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD116" s="29" t="e"/>
+      <c r="AE116" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF116" s="29" t="e"/>
+      <c r="AG116" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH116" s="29" t="e"/>
+    </row>
+    <row r="117" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A117" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B117" s="27" t="e"/>
+      <c r="C117" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D117" s="28" t="e"/>
+      <c r="E117" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F117" s="27" t="e"/>
+      <c r="G117" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H117" s="27" t="e"/>
+      <c r="I117" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J117" s="27" t="e"/>
+      <c r="K117" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L117" s="27" t="e"/>
+      <c r="M117" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="N117" s="27" t="e"/>
+      <c r="O117" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="P117" s="27" t="e"/>
+      <c r="Q117" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="R117" s="27" t="e"/>
+      <c r="S117" s="30" t="e"/>
+      <c r="T117" s="31" t="e"/>
+      <c r="U117" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="V117" s="29" t="e"/>
+      <c r="W117" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="X117" s="29" t="e"/>
+      <c r="Y117" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z117" s="29" t="e"/>
+      <c r="AA117" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB117" s="29" t="e"/>
+      <c r="AC117" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD117" s="29" t="e"/>
+      <c r="AE117" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF117" s="29" t="e"/>
+      <c r="AG117" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH117" s="29" t="e"/>
+    </row>
+    <row r="118" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A118" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="B118" s="27" t="e"/>
+      <c r="C118" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="D118" s="28" t="e"/>
+      <c r="E118" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F118" s="27" t="e"/>
+      <c r="G118" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H118" s="27" t="e"/>
+      <c r="I118" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J118" s="27" t="e"/>
+      <c r="K118" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L118" s="27" t="e"/>
+      <c r="M118" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="N118" s="27" t="e"/>
+      <c r="O118" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="P118" s="27" t="e"/>
+      <c r="Q118" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="R118" s="27" t="e"/>
+      <c r="S118" s="30" t="e"/>
+      <c r="T118" s="31" t="e"/>
+      <c r="U118" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="V118" s="29" t="e"/>
+      <c r="W118" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="X118" s="29" t="e"/>
+      <c r="Y118" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z118" s="29" t="e"/>
+      <c r="AA118" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB118" s="29" t="e"/>
+      <c r="AC118" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD118" s="29" t="e"/>
+      <c r="AE118" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF118" s="29" t="e"/>
+      <c r="AG118" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH118" s="29" t="e"/>
+    </row>
+    <row r="119" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A119" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="B119" s="27" t="e"/>
+      <c r="C119" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="D119" s="28" t="e"/>
+      <c r="E119" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F119" s="27" t="e"/>
+      <c r="G119" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H119" s="27" t="e"/>
+      <c r="I119" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J119" s="27" t="e"/>
+      <c r="K119" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L119" s="27" t="e"/>
+      <c r="M119" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="N119" s="27" t="e"/>
+      <c r="O119" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="P119" s="27" t="e"/>
+      <c r="Q119" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="R119" s="27" t="e"/>
+      <c r="S119" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T119" s="29" t="e"/>
+      <c r="U119" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="V119" s="29" t="e"/>
+      <c r="W119" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="X119" s="29" t="e"/>
+      <c r="Y119" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z119" s="29" t="e"/>
+      <c r="AA119" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB119" s="29" t="e"/>
+      <c r="AC119" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD119" s="29" t="e"/>
+      <c r="AE119" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF119" s="29" t="e"/>
+      <c r="AG119" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH119" s="29" t="e"/>
+    </row>
+    <row r="120" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A120" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="B120" s="27" t="e"/>
+      <c r="C120" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="D120" s="28" t="e"/>
+      <c r="E120" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F120" s="27" t="e"/>
+      <c r="G120" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H120" s="27" t="e"/>
+      <c r="I120" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J120" s="27" t="e"/>
+      <c r="K120" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L120" s="27" t="e"/>
+      <c r="M120" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="N120" s="27" t="e"/>
+      <c r="O120" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="P120" s="27" t="e"/>
+      <c r="Q120" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="R120" s="27" t="e"/>
+      <c r="S120" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T120" s="29" t="e"/>
+      <c r="U120" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="V120" s="29" t="e"/>
+      <c r="W120" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="X120" s="29" t="e"/>
+      <c r="Y120" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z120" s="29" t="e"/>
+      <c r="AA120" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB120" s="29" t="e"/>
+      <c r="AC120" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD120" s="29" t="e"/>
+      <c r="AE120" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF120" s="29" t="e"/>
+      <c r="AG120" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH120" s="29" t="e"/>
+    </row>
+    <row r="121" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A121" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="B121" s="27" t="e"/>
+      <c r="C121" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="D121" s="28" t="e"/>
+      <c r="E121" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F121" s="27" t="e"/>
+      <c r="G121" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H121" s="27" t="e"/>
+      <c r="I121" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J121" s="27" t="e"/>
+      <c r="K121" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L121" s="27" t="e"/>
+      <c r="M121" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="N121" s="27" t="e"/>
+      <c r="O121" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="P121" s="27" t="e"/>
+      <c r="Q121" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="R121" s="27" t="e"/>
+      <c r="S121" s="30" t="e"/>
+      <c r="T121" s="31" t="e"/>
+      <c r="U121" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="V121" s="29" t="e"/>
+      <c r="W121" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="X121" s="29" t="e"/>
+      <c r="Y121" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z121" s="29" t="e"/>
+      <c r="AA121" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB121" s="29" t="e"/>
+      <c r="AC121" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD121" s="29" t="e"/>
+      <c r="AE121" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF121" s="29" t="e"/>
+      <c r="AG121" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH121" s="29" t="e"/>
+    </row>
+    <row r="122" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A122" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="B122" s="27" t="e"/>
+      <c r="C122" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="D122" s="28" t="e"/>
+      <c r="E122" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F122" s="27" t="e"/>
+      <c r="G122" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H122" s="27" t="e"/>
+      <c r="I122" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J122" s="27" t="e"/>
+      <c r="K122" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L122" s="27" t="e"/>
+      <c r="M122" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="N122" s="27" t="e"/>
+      <c r="O122" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="P122" s="27" t="e"/>
+      <c r="Q122" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="R122" s="27" t="e"/>
+      <c r="S122" s="30" t="e"/>
+      <c r="T122" s="31" t="e"/>
+      <c r="U122" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="V122" s="29" t="e"/>
+      <c r="W122" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="X122" s="29" t="e"/>
+      <c r="Y122" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z122" s="29" t="e"/>
+      <c r="AA122" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB122" s="29" t="e"/>
+      <c r="AC122" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD122" s="29" t="e"/>
+      <c r="AE122" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF122" s="29" t="e"/>
+      <c r="AG122" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH122" s="29" t="e"/>
+    </row>
+    <row r="123" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A123" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="B123" s="27" t="e"/>
+      <c r="C123" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="D123" s="28" t="e"/>
+      <c r="E123" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F123" s="27" t="e"/>
+      <c r="G123" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H123" s="27" t="e"/>
+      <c r="I123" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J123" s="27" t="e"/>
+      <c r="K123" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L123" s="27" t="e"/>
+      <c r="M123" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="N123" s="27" t="e"/>
+      <c r="O123" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="P123" s="27" t="e"/>
+      <c r="Q123" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="R123" s="27" t="e"/>
+      <c r="S123" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="T123" s="29" t="e"/>
+      <c r="U123" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="V123" s="29" t="e"/>
+      <c r="W123" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="X123" s="29" t="e"/>
+      <c r="Y123" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z123" s="29" t="e"/>
+      <c r="AA123" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB123" s="29" t="e"/>
+      <c r="AC123" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD123" s="29" t="e"/>
+      <c r="AE123" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF123" s="29" t="e"/>
+      <c r="AG123" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH123" s="29" t="e"/>
+    </row>
+    <row r="124" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A124" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="B124" s="27" t="e"/>
+      <c r="C124" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="D124" s="28" t="e"/>
+      <c r="E124" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F124" s="27" t="e"/>
+      <c r="G124" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H124" s="27" t="e"/>
+      <c r="I124" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J124" s="27" t="e"/>
+      <c r="K124" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L124" s="27" t="e"/>
+      <c r="M124" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="N124" s="27" t="e"/>
+      <c r="O124" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="P124" s="27" t="e"/>
+      <c r="Q124" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="R124" s="27" t="e"/>
+      <c r="S124" s="30" t="e"/>
+      <c r="T124" s="31" t="e"/>
+      <c r="U124" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="V124" s="29" t="e"/>
+      <c r="W124" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="X124" s="29" t="e"/>
+      <c r="Y124" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z124" s="29" t="e"/>
+      <c r="AA124" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB124" s="29" t="e"/>
+      <c r="AC124" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD124" s="29" t="e"/>
+      <c r="AE124" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF124" s="29" t="e"/>
+      <c r="AG124" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH124" s="29" t="e"/>
+    </row>
+    <row r="125" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A125" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="B125" s="27" t="e"/>
+      <c r="C125" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="D125" s="28" t="e"/>
+      <c r="E125" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F125" s="27" t="e"/>
+      <c r="G125" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H125" s="27" t="e"/>
+      <c r="I125" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J125" s="27" t="e"/>
+      <c r="K125" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L125" s="27" t="e"/>
+      <c r="M125" s="33" t="e"/>
+      <c r="N125" s="34" t="e"/>
+      <c r="O125" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="P125" s="27" t="e"/>
+      <c r="Q125" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="R125" s="27" t="e"/>
+      <c r="S125" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T125" s="29" t="e"/>
+      <c r="U125" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="V125" s="29" t="e"/>
+      <c r="W125" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="X125" s="29" t="e"/>
+      <c r="Y125" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z125" s="29" t="e"/>
+      <c r="AA125" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB125" s="29" t="e"/>
+      <c r="AC125" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD125" s="29" t="e"/>
+      <c r="AE125" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF125" s="29" t="e"/>
+      <c r="AG125" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH125" s="29" t="e"/>
+    </row>
+    <row r="126" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A126" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="B126" s="27" t="e"/>
+      <c r="C126" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="D126" s="28" t="e"/>
+      <c r="E126" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F126" s="27" t="e"/>
+      <c r="G126" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H126" s="27" t="e"/>
+      <c r="I126" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J126" s="27" t="e"/>
+      <c r="K126" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L126" s="27" t="e"/>
+      <c r="M126" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="N126" s="35" t="e"/>
+      <c r="O126" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="P126" s="35" t="e"/>
+      <c r="Q126" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="R126" s="35" t="e"/>
+      <c r="S126" s="30" t="e"/>
+      <c r="T126" s="31" t="e"/>
+      <c r="U126" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="V126" s="29" t="e"/>
+      <c r="W126" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="X126" s="29" t="e"/>
+      <c r="Y126" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z126" s="29" t="e"/>
+      <c r="AA126" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB126" s="29" t="e"/>
+      <c r="AC126" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD126" s="29" t="e"/>
+      <c r="AE126" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF126" s="29" t="e"/>
+      <c r="AG126" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH126" s="29" t="e"/>
+    </row>
+    <row r="127" ht="13" customHeight="true" outlineLevel="1">
+      <c r="A127" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="B127" s="27" t="e"/>
+      <c r="C127" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="D127" s="28" t="e"/>
+      <c r="E127" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F127" s="27" t="e"/>
+      <c r="G127" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H127" s="27" t="e"/>
+      <c r="I127" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J127" s="27" t="e"/>
+      <c r="K127" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L127" s="27" t="e"/>
+      <c r="M127" s="33" t="e"/>
+      <c r="N127" s="34" t="e"/>
+      <c r="O127" s="33" t="e"/>
+      <c r="P127" s="34" t="e"/>
+      <c r="Q127" s="33" t="e"/>
+      <c r="R127" s="34" t="e"/>
+      <c r="S127" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T127" s="29" t="e"/>
+      <c r="U127" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="V127" s="29" t="e"/>
+      <c r="W127" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="X127" s="29" t="e"/>
+      <c r="Y127" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z127" s="29" t="e"/>
+      <c r="AA127" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB127" s="29" t="e"/>
+      <c r="AC127" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD127" s="29" t="e"/>
+      <c r="AE127" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF127" s="29" t="e"/>
+      <c r="AG127" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH127" s="29" t="e"/>
+    </row>
+    <row r="128" ht="10" customHeight="true" s="1" customFormat="true"/>
   </sheetData>
-  <mergeCells count="1470">
+  <mergeCells count="1845">
     <mergeCell ref="C2:R2"/>
     <mergeCell ref="C3:R3"/>
     <mergeCell ref="C4:R4"/>
@@ -7699,7 +9346,6 @@
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
     <mergeCell ref="U23:V23"/>
     <mergeCell ref="W23:X23"/>
     <mergeCell ref="Y23:Z23"/>
@@ -7817,7 +9463,6 @@
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="O30:P30"/>
     <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
     <mergeCell ref="U30:V30"/>
     <mergeCell ref="W30:X30"/>
     <mergeCell ref="Y30:Z30"/>
@@ -7919,6 +9564,7 @@
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="O36:P36"/>
     <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
     <mergeCell ref="U36:V36"/>
     <mergeCell ref="W36:X36"/>
     <mergeCell ref="Y36:Z36"/>
@@ -7935,6 +9581,7 @@
     <mergeCell ref="M37:N37"/>
     <mergeCell ref="O37:P37"/>
     <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
     <mergeCell ref="U37:V37"/>
     <mergeCell ref="W37:X37"/>
     <mergeCell ref="Y37:Z37"/>
@@ -7968,6 +9615,7 @@
     <mergeCell ref="M39:N39"/>
     <mergeCell ref="O39:P39"/>
     <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
     <mergeCell ref="U39:V39"/>
     <mergeCell ref="W39:X39"/>
     <mergeCell ref="Y39:Z39"/>
@@ -7984,6 +9632,7 @@
     <mergeCell ref="M40:N40"/>
     <mergeCell ref="O40:P40"/>
     <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
     <mergeCell ref="U40:V40"/>
     <mergeCell ref="W40:X40"/>
     <mergeCell ref="Y40:Z40"/>
@@ -8049,7 +9698,6 @@
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="O44:P44"/>
     <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
     <mergeCell ref="U44:V44"/>
     <mergeCell ref="W44:X44"/>
     <mergeCell ref="Y44:Z44"/>
@@ -8083,6 +9731,7 @@
     <mergeCell ref="M46:N46"/>
     <mergeCell ref="O46:P46"/>
     <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
     <mergeCell ref="U46:V46"/>
     <mergeCell ref="W46:X46"/>
     <mergeCell ref="Y46:Z46"/>
@@ -8099,7 +9748,6 @@
     <mergeCell ref="M47:N47"/>
     <mergeCell ref="O47:P47"/>
     <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:T47"/>
     <mergeCell ref="U47:V47"/>
     <mergeCell ref="W47:X47"/>
     <mergeCell ref="Y47:Z47"/>
@@ -8116,6 +9764,7 @@
     <mergeCell ref="M48:N48"/>
     <mergeCell ref="O48:P48"/>
     <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:T48"/>
     <mergeCell ref="U48:V48"/>
     <mergeCell ref="W48:X48"/>
     <mergeCell ref="Y48:Z48"/>
@@ -8132,6 +9781,7 @@
     <mergeCell ref="M49:N49"/>
     <mergeCell ref="O49:P49"/>
     <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="S49:T49"/>
     <mergeCell ref="U49:V49"/>
     <mergeCell ref="W49:X49"/>
     <mergeCell ref="Y49:Z49"/>
@@ -8182,7 +9832,6 @@
     <mergeCell ref="M52:N52"/>
     <mergeCell ref="O52:P52"/>
     <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:T52"/>
     <mergeCell ref="U52:V52"/>
     <mergeCell ref="W52:X52"/>
     <mergeCell ref="Y52:Z52"/>
@@ -8199,7 +9848,6 @@
     <mergeCell ref="M53:N53"/>
     <mergeCell ref="O53:P53"/>
     <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="S53:T53"/>
     <mergeCell ref="U53:V53"/>
     <mergeCell ref="W53:X53"/>
     <mergeCell ref="Y53:Z53"/>
@@ -8233,7 +9881,6 @@
     <mergeCell ref="M55:N55"/>
     <mergeCell ref="O55:P55"/>
     <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:T55"/>
     <mergeCell ref="U55:V55"/>
     <mergeCell ref="W55:X55"/>
     <mergeCell ref="Y55:Z55"/>
@@ -8250,7 +9897,6 @@
     <mergeCell ref="M56:N56"/>
     <mergeCell ref="O56:P56"/>
     <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:T56"/>
     <mergeCell ref="U56:V56"/>
     <mergeCell ref="W56:X56"/>
     <mergeCell ref="Y56:Z56"/>
@@ -8267,7 +9913,6 @@
     <mergeCell ref="M57:N57"/>
     <mergeCell ref="O57:P57"/>
     <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="S57:T57"/>
     <mergeCell ref="U57:V57"/>
     <mergeCell ref="W57:X57"/>
     <mergeCell ref="Y57:Z57"/>
@@ -8284,7 +9929,6 @@
     <mergeCell ref="M58:N58"/>
     <mergeCell ref="O58:P58"/>
     <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="S58:T58"/>
     <mergeCell ref="U58:V58"/>
     <mergeCell ref="W58:X58"/>
     <mergeCell ref="Y58:Z58"/>
@@ -8335,6 +9979,7 @@
     <mergeCell ref="M61:N61"/>
     <mergeCell ref="O61:P61"/>
     <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="S61:T61"/>
     <mergeCell ref="U61:V61"/>
     <mergeCell ref="W61:X61"/>
     <mergeCell ref="Y61:Z61"/>
@@ -8351,6 +9996,7 @@
     <mergeCell ref="M62:N62"/>
     <mergeCell ref="O62:P62"/>
     <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="S62:T62"/>
     <mergeCell ref="U62:V62"/>
     <mergeCell ref="W62:X62"/>
     <mergeCell ref="Y62:Z62"/>
@@ -8384,6 +10030,7 @@
     <mergeCell ref="M64:N64"/>
     <mergeCell ref="O64:P64"/>
     <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="S64:T64"/>
     <mergeCell ref="U64:V64"/>
     <mergeCell ref="W64:X64"/>
     <mergeCell ref="Y64:Z64"/>
@@ -8451,6 +10098,7 @@
     <mergeCell ref="M68:N68"/>
     <mergeCell ref="O68:P68"/>
     <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="S68:T68"/>
     <mergeCell ref="U68:V68"/>
     <mergeCell ref="W68:X68"/>
     <mergeCell ref="Y68:Z68"/>
@@ -8551,7 +10199,6 @@
     <mergeCell ref="M74:N74"/>
     <mergeCell ref="O74:P74"/>
     <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="S74:T74"/>
     <mergeCell ref="U74:V74"/>
     <mergeCell ref="W74:X74"/>
     <mergeCell ref="Y74:Z74"/>
@@ -8618,7 +10265,6 @@
     <mergeCell ref="M78:N78"/>
     <mergeCell ref="O78:P78"/>
     <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="S78:T78"/>
     <mergeCell ref="U78:V78"/>
     <mergeCell ref="W78:X78"/>
     <mergeCell ref="Y78:Z78"/>
@@ -8635,6 +10281,7 @@
     <mergeCell ref="M79:N79"/>
     <mergeCell ref="O79:P79"/>
     <mergeCell ref="Q79:R79"/>
+    <mergeCell ref="S79:T79"/>
     <mergeCell ref="U79:V79"/>
     <mergeCell ref="W79:X79"/>
     <mergeCell ref="Y79:Z79"/>
@@ -8651,6 +10298,7 @@
     <mergeCell ref="M80:N80"/>
     <mergeCell ref="O80:P80"/>
     <mergeCell ref="Q80:R80"/>
+    <mergeCell ref="S80:T80"/>
     <mergeCell ref="U80:V80"/>
     <mergeCell ref="W80:X80"/>
     <mergeCell ref="Y80:Z80"/>
@@ -8701,7 +10349,6 @@
     <mergeCell ref="M83:N83"/>
     <mergeCell ref="O83:P83"/>
     <mergeCell ref="Q83:R83"/>
-    <mergeCell ref="S83:T83"/>
     <mergeCell ref="U83:V83"/>
     <mergeCell ref="W83:X83"/>
     <mergeCell ref="Y83:Z83"/>
@@ -8800,6 +10447,7 @@
     <mergeCell ref="M89:N89"/>
     <mergeCell ref="O89:P89"/>
     <mergeCell ref="Q89:R89"/>
+    <mergeCell ref="S89:T89"/>
     <mergeCell ref="U89:V89"/>
     <mergeCell ref="W89:X89"/>
     <mergeCell ref="Y89:Z89"/>
@@ -8849,6 +10497,7 @@
     <mergeCell ref="M92:N92"/>
     <mergeCell ref="O92:P92"/>
     <mergeCell ref="Q92:R92"/>
+    <mergeCell ref="S92:T92"/>
     <mergeCell ref="U92:V92"/>
     <mergeCell ref="W92:X92"/>
     <mergeCell ref="Y92:Z92"/>
@@ -8865,6 +10514,7 @@
     <mergeCell ref="M93:N93"/>
     <mergeCell ref="O93:P93"/>
     <mergeCell ref="Q93:R93"/>
+    <mergeCell ref="S93:T93"/>
     <mergeCell ref="U93:V93"/>
     <mergeCell ref="W93:X93"/>
     <mergeCell ref="Y93:Z93"/>
@@ -8881,6 +10531,7 @@
     <mergeCell ref="M94:N94"/>
     <mergeCell ref="O94:P94"/>
     <mergeCell ref="Q94:R94"/>
+    <mergeCell ref="S94:T94"/>
     <mergeCell ref="U94:V94"/>
     <mergeCell ref="W94:X94"/>
     <mergeCell ref="Y94:Z94"/>
@@ -8914,7 +10565,6 @@
     <mergeCell ref="M96:N96"/>
     <mergeCell ref="O96:P96"/>
     <mergeCell ref="Q96:R96"/>
-    <mergeCell ref="S96:T96"/>
     <mergeCell ref="U96:V96"/>
     <mergeCell ref="W96:X96"/>
     <mergeCell ref="Y96:Z96"/>
@@ -8931,6 +10581,7 @@
     <mergeCell ref="M97:N97"/>
     <mergeCell ref="O97:P97"/>
     <mergeCell ref="Q97:R97"/>
+    <mergeCell ref="S97:T97"/>
     <mergeCell ref="U97:V97"/>
     <mergeCell ref="W97:X97"/>
     <mergeCell ref="Y97:Z97"/>
@@ -8963,7 +10614,6 @@
     <mergeCell ref="M99:N99"/>
     <mergeCell ref="O99:P99"/>
     <mergeCell ref="Q99:R99"/>
-    <mergeCell ref="S99:T99"/>
     <mergeCell ref="U99:V99"/>
     <mergeCell ref="W99:X99"/>
     <mergeCell ref="Y99:Z99"/>
@@ -8980,6 +10630,7 @@
     <mergeCell ref="M100:N100"/>
     <mergeCell ref="O100:P100"/>
     <mergeCell ref="Q100:R100"/>
+    <mergeCell ref="S100:T100"/>
     <mergeCell ref="U100:V100"/>
     <mergeCell ref="W100:X100"/>
     <mergeCell ref="Y100:Z100"/>
@@ -8993,8 +10644,10 @@
     <mergeCell ref="G101:H101"/>
     <mergeCell ref="I101:J101"/>
     <mergeCell ref="K101:L101"/>
+    <mergeCell ref="M101:N101"/>
     <mergeCell ref="O101:P101"/>
     <mergeCell ref="Q101:R101"/>
+    <mergeCell ref="S101:T101"/>
     <mergeCell ref="U101:V101"/>
     <mergeCell ref="W101:X101"/>
     <mergeCell ref="Y101:Z101"/>
@@ -9010,6 +10663,7 @@
     <mergeCell ref="K102:L102"/>
     <mergeCell ref="M102:N102"/>
     <mergeCell ref="O102:P102"/>
+    <mergeCell ref="Q102:R102"/>
     <mergeCell ref="U102:V102"/>
     <mergeCell ref="W102:X102"/>
     <mergeCell ref="Y102:Z102"/>
@@ -9023,6 +10677,8 @@
     <mergeCell ref="G103:H103"/>
     <mergeCell ref="I103:J103"/>
     <mergeCell ref="K103:L103"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="O103:P103"/>
     <mergeCell ref="Q103:R103"/>
     <mergeCell ref="S103:T103"/>
     <mergeCell ref="U103:V103"/>
@@ -9038,6 +10694,11 @@
     <mergeCell ref="G104:H104"/>
     <mergeCell ref="I104:J104"/>
     <mergeCell ref="K104:L104"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="O104:P104"/>
+    <mergeCell ref="Q104:R104"/>
+    <mergeCell ref="S104:T104"/>
+    <mergeCell ref="U104:V104"/>
     <mergeCell ref="W104:X104"/>
     <mergeCell ref="Y104:Z104"/>
     <mergeCell ref="AA104:AB104"/>
@@ -9050,12 +10711,373 @@
     <mergeCell ref="G105:H105"/>
     <mergeCell ref="I105:J105"/>
     <mergeCell ref="K105:L105"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="Q105:R105"/>
+    <mergeCell ref="S105:T105"/>
+    <mergeCell ref="U105:V105"/>
     <mergeCell ref="W105:X105"/>
     <mergeCell ref="Y105:Z105"/>
     <mergeCell ref="AA105:AB105"/>
     <mergeCell ref="AC105:AD105"/>
     <mergeCell ref="AE105:AF105"/>
     <mergeCell ref="AG105:AH105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="O106:P106"/>
+    <mergeCell ref="Q106:R106"/>
+    <mergeCell ref="U106:V106"/>
+    <mergeCell ref="W106:X106"/>
+    <mergeCell ref="Y106:Z106"/>
+    <mergeCell ref="AA106:AB106"/>
+    <mergeCell ref="AC106:AD106"/>
+    <mergeCell ref="AE106:AF106"/>
+    <mergeCell ref="AG106:AH106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="K107:L107"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="O107:P107"/>
+    <mergeCell ref="Q107:R107"/>
+    <mergeCell ref="U107:V107"/>
+    <mergeCell ref="W107:X107"/>
+    <mergeCell ref="Y107:Z107"/>
+    <mergeCell ref="AA107:AB107"/>
+    <mergeCell ref="AC107:AD107"/>
+    <mergeCell ref="AE107:AF107"/>
+    <mergeCell ref="AG107:AH107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="K108:L108"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="O108:P108"/>
+    <mergeCell ref="Q108:R108"/>
+    <mergeCell ref="U108:V108"/>
+    <mergeCell ref="W108:X108"/>
+    <mergeCell ref="Y108:Z108"/>
+    <mergeCell ref="AA108:AB108"/>
+    <mergeCell ref="AC108:AD108"/>
+    <mergeCell ref="AE108:AF108"/>
+    <mergeCell ref="AG108:AH108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="O109:P109"/>
+    <mergeCell ref="Q109:R109"/>
+    <mergeCell ref="S109:T109"/>
+    <mergeCell ref="U109:V109"/>
+    <mergeCell ref="W109:X109"/>
+    <mergeCell ref="Y109:Z109"/>
+    <mergeCell ref="AA109:AB109"/>
+    <mergeCell ref="AC109:AD109"/>
+    <mergeCell ref="AE109:AF109"/>
+    <mergeCell ref="AG109:AH109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="O110:P110"/>
+    <mergeCell ref="Q110:R110"/>
+    <mergeCell ref="U110:V110"/>
+    <mergeCell ref="W110:X110"/>
+    <mergeCell ref="Y110:Z110"/>
+    <mergeCell ref="AA110:AB110"/>
+    <mergeCell ref="AC110:AD110"/>
+    <mergeCell ref="AE110:AF110"/>
+    <mergeCell ref="AG110:AH110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="I111:J111"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="M111:N111"/>
+    <mergeCell ref="O111:P111"/>
+    <mergeCell ref="Q111:R111"/>
+    <mergeCell ref="U111:V111"/>
+    <mergeCell ref="W111:X111"/>
+    <mergeCell ref="Y111:Z111"/>
+    <mergeCell ref="AA111:AB111"/>
+    <mergeCell ref="AC111:AD111"/>
+    <mergeCell ref="AE111:AF111"/>
+    <mergeCell ref="AG111:AH111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="I112:J112"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="M112:N112"/>
+    <mergeCell ref="O112:P112"/>
+    <mergeCell ref="Q112:R112"/>
+    <mergeCell ref="S112:T112"/>
+    <mergeCell ref="U112:V112"/>
+    <mergeCell ref="W112:X112"/>
+    <mergeCell ref="Y112:Z112"/>
+    <mergeCell ref="AA112:AB112"/>
+    <mergeCell ref="AC112:AD112"/>
+    <mergeCell ref="AE112:AF112"/>
+    <mergeCell ref="AG112:AH112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="M113:N113"/>
+    <mergeCell ref="O113:P113"/>
+    <mergeCell ref="Q113:R113"/>
+    <mergeCell ref="U113:V113"/>
+    <mergeCell ref="W113:X113"/>
+    <mergeCell ref="Y113:Z113"/>
+    <mergeCell ref="AA113:AB113"/>
+    <mergeCell ref="AC113:AD113"/>
+    <mergeCell ref="AE113:AF113"/>
+    <mergeCell ref="AG113:AH113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="O114:P114"/>
+    <mergeCell ref="Q114:R114"/>
+    <mergeCell ref="U114:V114"/>
+    <mergeCell ref="W114:X114"/>
+    <mergeCell ref="Y114:Z114"/>
+    <mergeCell ref="AA114:AB114"/>
+    <mergeCell ref="AC114:AD114"/>
+    <mergeCell ref="AE114:AF114"/>
+    <mergeCell ref="AG114:AH114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="K115:L115"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="O115:P115"/>
+    <mergeCell ref="Q115:R115"/>
+    <mergeCell ref="U115:V115"/>
+    <mergeCell ref="W115:X115"/>
+    <mergeCell ref="Y115:Z115"/>
+    <mergeCell ref="AA115:AB115"/>
+    <mergeCell ref="AC115:AD115"/>
+    <mergeCell ref="AE115:AF115"/>
+    <mergeCell ref="AG115:AH115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="O116:P116"/>
+    <mergeCell ref="Q116:R116"/>
+    <mergeCell ref="S116:T116"/>
+    <mergeCell ref="U116:V116"/>
+    <mergeCell ref="W116:X116"/>
+    <mergeCell ref="Y116:Z116"/>
+    <mergeCell ref="AA116:AB116"/>
+    <mergeCell ref="AC116:AD116"/>
+    <mergeCell ref="AE116:AF116"/>
+    <mergeCell ref="AG116:AH116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="K117:L117"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="O117:P117"/>
+    <mergeCell ref="Q117:R117"/>
+    <mergeCell ref="U117:V117"/>
+    <mergeCell ref="W117:X117"/>
+    <mergeCell ref="Y117:Z117"/>
+    <mergeCell ref="AA117:AB117"/>
+    <mergeCell ref="AC117:AD117"/>
+    <mergeCell ref="AE117:AF117"/>
+    <mergeCell ref="AG117:AH117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="K118:L118"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="O118:P118"/>
+    <mergeCell ref="Q118:R118"/>
+    <mergeCell ref="U118:V118"/>
+    <mergeCell ref="W118:X118"/>
+    <mergeCell ref="Y118:Z118"/>
+    <mergeCell ref="AA118:AB118"/>
+    <mergeCell ref="AC118:AD118"/>
+    <mergeCell ref="AE118:AF118"/>
+    <mergeCell ref="AG118:AH118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="K119:L119"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="O119:P119"/>
+    <mergeCell ref="Q119:R119"/>
+    <mergeCell ref="S119:T119"/>
+    <mergeCell ref="U119:V119"/>
+    <mergeCell ref="W119:X119"/>
+    <mergeCell ref="Y119:Z119"/>
+    <mergeCell ref="AA119:AB119"/>
+    <mergeCell ref="AC119:AD119"/>
+    <mergeCell ref="AE119:AF119"/>
+    <mergeCell ref="AG119:AH119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="O120:P120"/>
+    <mergeCell ref="Q120:R120"/>
+    <mergeCell ref="S120:T120"/>
+    <mergeCell ref="U120:V120"/>
+    <mergeCell ref="W120:X120"/>
+    <mergeCell ref="Y120:Z120"/>
+    <mergeCell ref="AA120:AB120"/>
+    <mergeCell ref="AC120:AD120"/>
+    <mergeCell ref="AE120:AF120"/>
+    <mergeCell ref="AG120:AH120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="M121:N121"/>
+    <mergeCell ref="O121:P121"/>
+    <mergeCell ref="Q121:R121"/>
+    <mergeCell ref="U121:V121"/>
+    <mergeCell ref="W121:X121"/>
+    <mergeCell ref="Y121:Z121"/>
+    <mergeCell ref="AA121:AB121"/>
+    <mergeCell ref="AC121:AD121"/>
+    <mergeCell ref="AE121:AF121"/>
+    <mergeCell ref="AG121:AH121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="M122:N122"/>
+    <mergeCell ref="O122:P122"/>
+    <mergeCell ref="Q122:R122"/>
+    <mergeCell ref="U122:V122"/>
+    <mergeCell ref="W122:X122"/>
+    <mergeCell ref="Y122:Z122"/>
+    <mergeCell ref="AA122:AB122"/>
+    <mergeCell ref="AC122:AD122"/>
+    <mergeCell ref="AE122:AF122"/>
+    <mergeCell ref="AG122:AH122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="M123:N123"/>
+    <mergeCell ref="O123:P123"/>
+    <mergeCell ref="Q123:R123"/>
+    <mergeCell ref="S123:T123"/>
+    <mergeCell ref="U123:V123"/>
+    <mergeCell ref="W123:X123"/>
+    <mergeCell ref="Y123:Z123"/>
+    <mergeCell ref="AA123:AB123"/>
+    <mergeCell ref="AC123:AD123"/>
+    <mergeCell ref="AE123:AF123"/>
+    <mergeCell ref="AG123:AH123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="M124:N124"/>
+    <mergeCell ref="O124:P124"/>
+    <mergeCell ref="Q124:R124"/>
+    <mergeCell ref="U124:V124"/>
+    <mergeCell ref="W124:X124"/>
+    <mergeCell ref="Y124:Z124"/>
+    <mergeCell ref="AA124:AB124"/>
+    <mergeCell ref="AC124:AD124"/>
+    <mergeCell ref="AE124:AF124"/>
+    <mergeCell ref="AG124:AH124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="O125:P125"/>
+    <mergeCell ref="Q125:R125"/>
+    <mergeCell ref="S125:T125"/>
+    <mergeCell ref="U125:V125"/>
+    <mergeCell ref="W125:X125"/>
+    <mergeCell ref="Y125:Z125"/>
+    <mergeCell ref="AA125:AB125"/>
+    <mergeCell ref="AC125:AD125"/>
+    <mergeCell ref="AE125:AF125"/>
+    <mergeCell ref="AG125:AH125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="I126:J126"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="O126:P126"/>
+    <mergeCell ref="Q126:R126"/>
+    <mergeCell ref="U126:V126"/>
+    <mergeCell ref="W126:X126"/>
+    <mergeCell ref="Y126:Z126"/>
+    <mergeCell ref="AA126:AB126"/>
+    <mergeCell ref="AC126:AD126"/>
+    <mergeCell ref="AE126:AF126"/>
+    <mergeCell ref="AG126:AH126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="S127:T127"/>
+    <mergeCell ref="U127:V127"/>
+    <mergeCell ref="W127:X127"/>
+    <mergeCell ref="Y127:Z127"/>
+    <mergeCell ref="AA127:AB127"/>
+    <mergeCell ref="AC127:AD127"/>
+    <mergeCell ref="AE127:AF127"/>
+    <mergeCell ref="AG127:AH127"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" orientation="portrait"/>
